--- a/BD/Base_1_TimeSeries.xlsx
+++ b/BD/Base_1_TimeSeries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminolivavazquez/Documents/Personal/Cursos_UNAM/SERIES_2022-I/Series-de-Tiempo-2021/Clase_00/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2024-I/Series-Tiempo/BD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5DEC0-C5E4-0C4A-9977-86625B8D07E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD32B9DD-0124-3147-87D6-9446C692C183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32100" yWindow="2780" windowWidth="27640" windowHeight="16540" xr2:uid="{0D46E9FE-A0A6-634E-B88F-BB6E7EC27F03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>Periodo</t>
   </si>
@@ -745,6 +745,78 @@
   </si>
   <si>
     <t>2021/05</t>
+  </si>
+  <si>
+    <t>2021/06</t>
+  </si>
+  <si>
+    <t>2022/07</t>
+  </si>
+  <si>
+    <t>2022/08</t>
+  </si>
+  <si>
+    <t>2021/09</t>
+  </si>
+  <si>
+    <t>2021/10</t>
+  </si>
+  <si>
+    <t>2021/11</t>
+  </si>
+  <si>
+    <t>2021/12</t>
+  </si>
+  <si>
+    <t>2021/07</t>
+  </si>
+  <si>
+    <t>2021/08</t>
+  </si>
+  <si>
+    <t>2022/01</t>
+  </si>
+  <si>
+    <t>2022/02</t>
+  </si>
+  <si>
+    <t>2022/03</t>
+  </si>
+  <si>
+    <t>2022/04</t>
+  </si>
+  <si>
+    <t>2022/05</t>
+  </si>
+  <si>
+    <t>2022/06</t>
+  </si>
+  <si>
+    <t>2022/09</t>
+  </si>
+  <si>
+    <t>2022/10</t>
+  </si>
+  <si>
+    <t>2022/11</t>
+  </si>
+  <si>
+    <t>2022/12</t>
+  </si>
+  <si>
+    <t>2023/01</t>
+  </si>
+  <si>
+    <t>2023/02</t>
+  </si>
+  <si>
+    <t>2023/03</t>
+  </si>
+  <si>
+    <t>2023/04</t>
+  </si>
+  <si>
+    <t>2023/05</t>
   </si>
 </sst>
 </file>
@@ -786,9 +858,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,9 +1174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E69B6-2D16-514E-A726-941639C52B74}">
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1136,22 +1209,22 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>76.849049064710002</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>91.808737017132003</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>36.927558573412</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>43.361664188612998</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>6927.87</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>9.1616</v>
       </c>
     </row>
@@ -1159,22 +1232,22 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>75.384098896275006</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>77.921868883271998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>37.597942107675998</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>43.494350436989002</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>6734.44</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>9.0998000000000001</v>
       </c>
     </row>
@@ -1182,22 +1255,22 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>79.221103423832005</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>76.297767686121006</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>39.779215965106999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>44.738873539640998</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>7361.86</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>9.0707000000000004</v>
       </c>
     </row>
@@ -1205,22 +1278,22 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>78.961362615306001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>74.740497338012005</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>39.832431635131002</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>44.611169271342</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>7480.74</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>9.1629000000000005</v>
       </c>
     </row>
@@ -1228,22 +1301,22 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>81.587717262618</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>88.612766466178002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>41.630049645459998</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>46.596619270687</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>7031.64</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>9.5191999999999997</v>
       </c>
     </row>
@@ -1251,22 +1324,22 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>80.561147138180999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>91.791641057416996</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>41.547499507034999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>46.666777182678999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>6460.95</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>9.7652000000000001</v>
       </c>
     </row>
@@ -1274,22 +1347,22 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>79.384847605502998</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>80.666350064873996</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>42.196272825314999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>46.816340775604999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>6021.84</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>9.7807999999999993</v>
       </c>
     </row>
@@ -1297,22 +1370,22 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>80.195140765816006</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>70.919565999718003</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>42.537365852275997</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>45.194430224237003</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>6216.43</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>9.8396000000000008</v>
       </c>
     </row>
@@ -1320,22 +1393,22 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>78.938175798729006</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>65.952748213668002</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>41.977721212890003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>45.417543658071999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>5728.46</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>10.071400000000001</v>
       </c>
     </row>
@@ -1343,22 +1416,22 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>81.041754271738995</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>74.933842711679006</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>41.005364954704</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>45.792058637670998</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>5967.73</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>10.095000000000001</v>
       </c>
     </row>
@@ -1366,22 +1439,22 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>80.084317737278994</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>101.331995913786</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>42.111526092018003</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>45.383454377405002</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>6156.83</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>10.1975</v>
       </c>
     </row>
@@ -1389,22 +1462,22 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>80.781126968386005</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>103.030656413046</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>42.914961613891002</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>44.972206231053001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>6127.09</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>10.2249</v>
       </c>
     </row>
@@ -1412,22 +1485,22 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>78.806159654468999</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>95.032427315529006</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>40.884979005161</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>45.804093833556998</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>5954.35</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>10.6203</v>
       </c>
     </row>
@@ -1435,22 +1508,22 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>77.458669619073007</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>79.456646873273996</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>39.148309064803001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>44.681264555901997</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>5927.06</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>10.937200000000001</v>
       </c>
     </row>
@@ -1458,22 +1531,22 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>80.408043916297004</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>77.904214085823</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>37.882144218617</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>44.590018832711003</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>5914.03</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>10.9124</v>
       </c>
     </row>
@@ -1481,22 +1554,22 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>80.177634186223003</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>76.308623456621007</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>40.005031711850002</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>46.538323542344003</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>6509.88</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>10.591699999999999</v>
       </c>
     </row>
@@ -1504,22 +1577,22 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>82.174404693764998</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>87.638430218395996</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>40.957565736684003</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>46.359658334538999</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>6699.18</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>10.251200000000001</v>
       </c>
     </row>
@@ -6381,10 +6454,10 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>106.596102297874</v>
+        <v>105.545705239936</v>
       </c>
       <c r="C230">
-        <v>134.518277082694</v>
+        <v>133.09349328716101</v>
       </c>
       <c r="D230">
         <v>39.211395346757001</v>
@@ -6393,7 +6466,7 @@
         <v>42.868581418947002</v>
       </c>
       <c r="F230">
-        <v>42985.73</v>
+        <v>45322.405500000008</v>
       </c>
       <c r="G230">
         <v>19.921500000000002</v>
@@ -6404,10 +6477,10 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>103.18153998897</v>
+        <v>102.802938120487</v>
       </c>
       <c r="C231">
-        <v>109.775825674223</v>
+        <v>105.614142719844</v>
       </c>
       <c r="D231">
         <v>38.640136961084998</v>
@@ -6416,7 +6489,7 @@
         <v>41.195869587567003</v>
       </c>
       <c r="F231">
-        <v>44592.91</v>
+        <v>44521.79631578947</v>
       </c>
       <c r="G231">
         <v>20.309699999999999</v>
@@ -6427,10 +6500,10 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>109.81490204692599</v>
+        <v>111.518641110861</v>
       </c>
       <c r="C232">
-        <v>97.589702680865003</v>
+        <v>94.775579264106995</v>
       </c>
       <c r="D232">
         <v>40.581572053441</v>
@@ -6439,7 +6512,7 @@
         <v>42.862133503384001</v>
       </c>
       <c r="F232">
-        <v>47246.26</v>
+        <v>47032.961363636357</v>
       </c>
       <c r="G232">
         <v>20.755500000000001</v>
@@ -6450,10 +6523,10 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>107.312583380471</v>
+        <v>107.83486885096301</v>
       </c>
       <c r="C233">
-        <v>104.66259759152101</v>
+        <v>104.110501230672</v>
       </c>
       <c r="D233">
         <v>42.509073150798997</v>
@@ -6462,7 +6535,7 @@
         <v>45.191910905470998</v>
       </c>
       <c r="F233">
-        <v>48009.72</v>
+        <v>48357.7955</v>
       </c>
       <c r="G233">
         <v>20.0153</v>
@@ -6473,10 +6546,10 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>112.819641617469</v>
+        <v>111.176810448347</v>
       </c>
       <c r="C234">
-        <v>134.23456008533401</v>
+        <v>132.97779757358001</v>
       </c>
       <c r="D234">
         <v>42.422701068797998</v>
@@ -6485,10 +6558,562 @@
         <v>44.859401747934001</v>
       </c>
       <c r="F234">
-        <v>50885.95</v>
+        <v>49328.700952380961</v>
       </c>
       <c r="G234">
         <v>19.963100000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235">
+        <v>110.803499084891</v>
+      </c>
+      <c r="C235">
+        <v>132.93166709583099</v>
+      </c>
+      <c r="D235">
+        <v>44.347676509277001</v>
+      </c>
+      <c r="E235">
+        <v>46.584308581858998</v>
+      </c>
+      <c r="F235">
+        <v>50618.913181818185</v>
+      </c>
+      <c r="G235">
+        <v>20.030100000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>247</v>
+      </c>
+      <c r="B236">
+        <v>109.21461340579501</v>
+      </c>
+      <c r="C236">
+        <v>119.999505126287</v>
+      </c>
+      <c r="D236">
+        <v>44.293387523756998</v>
+      </c>
+      <c r="E236">
+        <v>47.760393759563001</v>
+      </c>
+      <c r="F236">
+        <v>50184.981363636354</v>
+      </c>
+      <c r="G236">
+        <v>19.970099999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>248</v>
+      </c>
+      <c r="B237">
+        <v>106.90935410265</v>
+      </c>
+      <c r="C237">
+        <v>91.162882512973994</v>
+      </c>
+      <c r="D237">
+        <v>42.474646633177002</v>
+      </c>
+      <c r="E237">
+        <v>46.161111996122003</v>
+      </c>
+      <c r="F237">
+        <v>51649.266818181823</v>
+      </c>
+      <c r="G237">
+        <v>20.0761</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238">
+        <v>104.205534403445</v>
+      </c>
+      <c r="C238">
+        <v>86.213162301219</v>
+      </c>
+      <c r="D238">
+        <v>43.342082825585997</v>
+      </c>
+      <c r="E238">
+        <v>46.554106339950998</v>
+      </c>
+      <c r="F238">
+        <v>51517.07</v>
+      </c>
+      <c r="G238">
+        <v>20.0487</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>244</v>
+      </c>
+      <c r="B239">
+        <v>108.249110898899</v>
+      </c>
+      <c r="C239">
+        <v>100.866217488478</v>
+      </c>
+      <c r="D239">
+        <v>43.843081349925001</v>
+      </c>
+      <c r="E239">
+        <v>46.433398149683001</v>
+      </c>
+      <c r="F239">
+        <v>51705.356190476188</v>
+      </c>
+      <c r="G239">
+        <v>20.462599999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>245</v>
+      </c>
+      <c r="B240">
+        <v>112.534490267401</v>
+      </c>
+      <c r="C240">
+        <v>165.69725485464099</v>
+      </c>
+      <c r="D240">
+        <v>45.935432245422</v>
+      </c>
+      <c r="E240">
+        <v>49.705606261631999</v>
+      </c>
+      <c r="F240">
+        <v>51125.743500000004</v>
+      </c>
+      <c r="G240">
+        <v>20.900400000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>246</v>
+      </c>
+      <c r="B241">
+        <v>112.653666724978</v>
+      </c>
+      <c r="C241">
+        <v>162.874786973932</v>
+      </c>
+      <c r="D241">
+        <v>44.896417492952999</v>
+      </c>
+      <c r="E241">
+        <v>49.117447024154004</v>
+      </c>
+      <c r="F241">
+        <v>51759.230869565217</v>
+      </c>
+      <c r="G241">
+        <v>20.8918</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>249</v>
+      </c>
+      <c r="B242">
+        <v>107.229035040764</v>
+      </c>
+      <c r="C242">
+        <v>132.28306215549799</v>
+      </c>
+      <c r="D242">
+        <v>43.590903532298</v>
+      </c>
+      <c r="E242">
+        <v>48.820961800531002</v>
+      </c>
+      <c r="F242">
+        <v>52494.79714285714</v>
+      </c>
+      <c r="G242">
+        <v>20.497800000000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>250</v>
+      </c>
+      <c r="B243">
+        <v>105.540077061307</v>
+      </c>
+      <c r="C243">
+        <v>101.711782659996</v>
+      </c>
+      <c r="D243">
+        <v>42.940053805837998</v>
+      </c>
+      <c r="E243">
+        <v>47.618338338727</v>
+      </c>
+      <c r="F243">
+        <v>52353.798947368421</v>
+      </c>
+      <c r="G243">
+        <v>20.4495</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>251</v>
+      </c>
+      <c r="B244">
+        <v>112.259414672555</v>
+      </c>
+      <c r="C244">
+        <v>98.315348498844997</v>
+      </c>
+      <c r="D244">
+        <v>43.560277939671998</v>
+      </c>
+      <c r="E244">
+        <v>48.565838502425002</v>
+      </c>
+      <c r="F244">
+        <v>54312.392272727266</v>
+      </c>
+      <c r="G244">
+        <v>20.5562</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>252</v>
+      </c>
+      <c r="B245">
+        <v>109.61856941521</v>
+      </c>
+      <c r="C245">
+        <v>107.89217870511</v>
+      </c>
+      <c r="D245">
+        <v>44.301709560652</v>
+      </c>
+      <c r="E245">
+        <v>48.656022717787998</v>
+      </c>
+      <c r="F245">
+        <v>54057.038947368412</v>
+      </c>
+      <c r="G245">
+        <v>20.108799999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>253</v>
+      </c>
+      <c r="B246">
+        <v>114.21407477879001</v>
+      </c>
+      <c r="C246">
+        <v>136.18789483847999</v>
+      </c>
+      <c r="D246">
+        <v>43.782312077302997</v>
+      </c>
+      <c r="E246">
+        <v>48.498823005215002</v>
+      </c>
+      <c r="F246">
+        <v>50861.209090909084</v>
+      </c>
+      <c r="G246">
+        <v>20.0305</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>254</v>
+      </c>
+      <c r="B247">
+        <v>112.790073371649</v>
+      </c>
+      <c r="C247">
+        <v>126.874198567599</v>
+      </c>
+      <c r="D247">
+        <v>43.208627089887997</v>
+      </c>
+      <c r="E247">
+        <v>48.193663327727002</v>
+      </c>
+      <c r="F247">
+        <v>48692.372272727269</v>
+      </c>
+      <c r="G247">
+        <v>20.023700000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>241</v>
+      </c>
+      <c r="B248">
+        <v>111.284214253336</v>
+      </c>
+      <c r="C248">
+        <v>116.255810710361</v>
+      </c>
+      <c r="D248">
+        <v>41.269872650913001</v>
+      </c>
+      <c r="E248">
+        <v>47.117538341913999</v>
+      </c>
+      <c r="F248">
+        <v>47392.099047619049</v>
+      </c>
+      <c r="G248">
+        <v>20.546700000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>242</v>
+      </c>
+      <c r="B249">
+        <v>112.917041167657</v>
+      </c>
+      <c r="C249">
+        <v>93.413122449645002</v>
+      </c>
+      <c r="D249">
+        <v>40.297933839210003</v>
+      </c>
+      <c r="E249">
+        <v>46.110803005036999</v>
+      </c>
+      <c r="F249">
+        <v>47547.934347826085</v>
+      </c>
+      <c r="G249">
+        <v>20.120899999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250">
+        <v>109.505769654082</v>
+      </c>
+      <c r="C250">
+        <v>91.087344538628997</v>
+      </c>
+      <c r="D250">
+        <v>40.822792165000003</v>
+      </c>
+      <c r="E250">
+        <v>46.146287762375003</v>
+      </c>
+      <c r="F250">
+        <v>46121.979523809525</v>
+      </c>
+      <c r="G250">
+        <v>20.074999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251">
+        <v>113.101302204276</v>
+      </c>
+      <c r="C251">
+        <v>105.100205601818</v>
+      </c>
+      <c r="D251">
+        <v>41.283880015538998</v>
+      </c>
+      <c r="E251">
+        <v>46.546572248768001</v>
+      </c>
+      <c r="F251">
+        <v>46825.505238095233</v>
+      </c>
+      <c r="G251">
+        <v>19.984500000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>257</v>
+      </c>
+      <c r="B252">
+        <v>116.235465411032</v>
+      </c>
+      <c r="C252">
+        <v>174.80824153539399</v>
+      </c>
+      <c r="D252">
+        <v>41.755955250832002</v>
+      </c>
+      <c r="E252">
+        <v>47.194352112982997</v>
+      </c>
+      <c r="F252">
+        <v>51284.925499999998</v>
+      </c>
+      <c r="G252">
+        <v>19.444900000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>258</v>
+      </c>
+      <c r="B253">
+        <v>115.65744692961501</v>
+      </c>
+      <c r="C253">
+        <v>174.15090605306801</v>
+      </c>
+      <c r="D253">
+        <v>43.287305150133001</v>
+      </c>
+      <c r="E253">
+        <v>48.340994727808003</v>
+      </c>
+      <c r="F253">
+        <v>50269.864761904748</v>
+      </c>
+      <c r="G253">
+        <v>19.593</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>259</v>
+      </c>
+      <c r="B254">
+        <v>112.099534402271</v>
+      </c>
+      <c r="C254">
+        <v>131.63322847320501</v>
+      </c>
+      <c r="D254">
+        <v>44.774005908794003</v>
+      </c>
+      <c r="E254">
+        <v>49.505313506842</v>
+      </c>
+      <c r="F254">
+        <v>53007.338181818181</v>
+      </c>
+      <c r="G254">
+        <v>18.9863</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>260</v>
+      </c>
+      <c r="B255">
+        <v>109.550381639275</v>
+      </c>
+      <c r="C255">
+        <v>110.300233693525</v>
+      </c>
+      <c r="D255">
+        <v>44.648579360698001</v>
+      </c>
+      <c r="E255">
+        <v>48.915633636327001</v>
+      </c>
+      <c r="F255">
+        <v>53342.19000000001</v>
+      </c>
+      <c r="G255">
+        <v>18.598600000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>261</v>
+      </c>
+      <c r="B256">
+        <v>115.25168580496199</v>
+      </c>
+      <c r="C256">
+        <v>99.198459687297998</v>
+      </c>
+      <c r="D256">
+        <v>44.497504601820999</v>
+      </c>
+      <c r="E256">
+        <v>48.885747890302</v>
+      </c>
+      <c r="F256">
+        <v>53120.794090909098</v>
+      </c>
+      <c r="G256">
+        <v>18.3749</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>262</v>
+      </c>
+      <c r="B257">
+        <v>112.52454605654199</v>
+      </c>
+      <c r="C257">
+        <v>110.169383055815</v>
+      </c>
+      <c r="D257">
+        <v>44.604057252018997</v>
+      </c>
+      <c r="E257">
+        <v>48.967654366685998</v>
+      </c>
+      <c r="F257">
+        <v>54352.19000000001</v>
+      </c>
+      <c r="G257">
+        <v>18.0855</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>263</v>
+      </c>
+      <c r="B258">
+        <v>119.135537781992</v>
+      </c>
+      <c r="C258">
+        <v>137.945520319699</v>
+      </c>
+      <c r="D258">
+        <v>44.672420334263002</v>
+      </c>
+      <c r="E258">
+        <v>49.051707577393003</v>
+      </c>
+      <c r="F258">
+        <v>54492.129090909097</v>
+      </c>
+      <c r="G258">
+        <v>17.737300000000001</v>
       </c>
     </row>
   </sheetData>

--- a/BD/Base_1_TimeSeries.xlsx
+++ b/BD/Base_1_TimeSeries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2024-I/Series-Tiempo/BD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/Series-Tiempo/BD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD32B9DD-0124-3147-87D6-9446C692C183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864080E0-535C-F94E-90BA-B49E6C954C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32100" yWindow="2780" windowWidth="27640" windowHeight="16540" xr2:uid="{0D46E9FE-A0A6-634E-B88F-BB6E7EC27F03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>Periodo</t>
   </si>
@@ -817,6 +817,78 @@
   </si>
   <si>
     <t>2023/05</t>
+  </si>
+  <si>
+    <t>2023/06</t>
+  </si>
+  <si>
+    <t>2023/07</t>
+  </si>
+  <si>
+    <t>2023/08</t>
+  </si>
+  <si>
+    <t>2023/09</t>
+  </si>
+  <si>
+    <t>2023/10</t>
+  </si>
+  <si>
+    <t>2023/11</t>
+  </si>
+  <si>
+    <t>2023/12</t>
+  </si>
+  <si>
+    <t>2024/01</t>
+  </si>
+  <si>
+    <t>2024/02</t>
+  </si>
+  <si>
+    <t>2024/03</t>
+  </si>
+  <si>
+    <t>2024/04</t>
+  </si>
+  <si>
+    <t>2024/05</t>
+  </si>
+  <si>
+    <t>2024/06</t>
+  </si>
+  <si>
+    <t>2024/07</t>
+  </si>
+  <si>
+    <t>2024/08</t>
+  </si>
+  <si>
+    <t>2024/09</t>
+  </si>
+  <si>
+    <t>2024/10</t>
+  </si>
+  <si>
+    <t>2024/11</t>
+  </si>
+  <si>
+    <t>2024/12</t>
+  </si>
+  <si>
+    <t>2025/01</t>
+  </si>
+  <si>
+    <t>2025/02</t>
+  </si>
+  <si>
+    <t>2025/03</t>
+  </si>
+  <si>
+    <t>2025/04</t>
+  </si>
+  <si>
+    <t>2025/05</t>
   </si>
 </sst>
 </file>
@@ -878,9 +950,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -918,7 +990,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1024,7 +1096,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1166,7 +1238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1174,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E69B6-2D16-514E-A726-941639C52B74}">
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F283" sqref="F283:F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,10 +1282,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>76.849049064710002</v>
+        <v>70.583749647092006</v>
       </c>
       <c r="C2">
-        <v>91.808737017132003</v>
+        <v>76.060817880786999</v>
       </c>
       <c r="D2">
         <v>36.927558573412</v>
@@ -1233,10 +1305,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>75.384098896275006</v>
+        <v>69.194394152379004</v>
       </c>
       <c r="C3">
-        <v>77.921868883271998</v>
+        <v>66.179852479339999</v>
       </c>
       <c r="D3">
         <v>37.597942107675998</v>
@@ -1256,10 +1328,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>79.221103423832005</v>
+        <v>72.592518531376001</v>
       </c>
       <c r="C4">
-        <v>76.297767686121006</v>
+        <v>64.961236820533003</v>
       </c>
       <c r="D4">
         <v>39.779215965106999</v>
@@ -1279,10 +1351,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>78.961362615306001</v>
+        <v>72.983456730922995</v>
       </c>
       <c r="C5">
-        <v>74.740497338012005</v>
+        <v>65.887143744194006</v>
       </c>
       <c r="D5">
         <v>39.832431635131002</v>
@@ -1302,10 +1374,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>81.587717262618</v>
+        <v>74.208871115049007</v>
       </c>
       <c r="C6">
-        <v>88.612766466178002</v>
+        <v>75.950278687818994</v>
       </c>
       <c r="D6">
         <v>41.630049645459998</v>
@@ -1325,10 +1397,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>80.561147138180999</v>
+        <v>73.701724746395001</v>
       </c>
       <c r="C7">
-        <v>91.791641057416996</v>
+        <v>79.721720678523994</v>
       </c>
       <c r="D7">
         <v>41.547499507034999</v>
@@ -1348,10 +1420,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>79.384847605502998</v>
+        <v>73.128225042704997</v>
       </c>
       <c r="C8">
-        <v>80.666350064873996</v>
+        <v>72.112697529377002</v>
       </c>
       <c r="D8">
         <v>42.196272825314999</v>
@@ -1371,10 +1443,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>80.195140765816006</v>
+        <v>73.797243601538995</v>
       </c>
       <c r="C9">
-        <v>70.919565999718003</v>
+        <v>64.513030242818004</v>
       </c>
       <c r="D9">
         <v>42.537365852275997</v>
@@ -1394,10 +1466,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>78.938175798729006</v>
+        <v>74.506493376551006</v>
       </c>
       <c r="C10">
-        <v>65.952748213668002</v>
+        <v>59.053447527995999</v>
       </c>
       <c r="D10">
         <v>41.977721212890003</v>
@@ -1417,10 +1489,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>81.041754271738995</v>
+        <v>74.393185771928998</v>
       </c>
       <c r="C11">
-        <v>74.933842711679006</v>
+        <v>66.292061836082993</v>
       </c>
       <c r="D11">
         <v>41.005364954704</v>
@@ -1440,10 +1512,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>80.084317737278994</v>
+        <v>73.364972535443002</v>
       </c>
       <c r="C12">
-        <v>101.331995913786</v>
+        <v>82.358956560642</v>
       </c>
       <c r="D12">
         <v>42.111526092018003</v>
@@ -1463,10 +1535,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>80.781126968386005</v>
+        <v>74.118978295919007</v>
       </c>
       <c r="C13">
-        <v>103.030656413046</v>
+        <v>84.432239801180003</v>
       </c>
       <c r="D13">
         <v>42.914961613891002</v>
@@ -1486,10 +1558,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>78.806159654468999</v>
+        <v>72.081324343690994</v>
       </c>
       <c r="C14">
-        <v>95.032427315529006</v>
+        <v>78.772727303878995</v>
       </c>
       <c r="D14">
         <v>40.884979005161</v>
@@ -1509,10 +1581,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>77.458669619073007</v>
+        <v>71.174902715268004</v>
       </c>
       <c r="C15">
-        <v>79.456646873273996</v>
+        <v>67.587174379092005</v>
       </c>
       <c r="D15">
         <v>39.148309064803001</v>
@@ -1532,10 +1604,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>80.408043916297004</v>
+        <v>73.679288962806993</v>
       </c>
       <c r="C16">
-        <v>77.904214085823</v>
+        <v>66.484655829467002</v>
       </c>
       <c r="D16">
         <v>37.882144218617</v>
@@ -1555,10 +1627,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>80.177634186223003</v>
+        <v>73.747926225388994</v>
       </c>
       <c r="C17">
-        <v>76.308623456621007</v>
+        <v>67.365466898527998</v>
       </c>
       <c r="D17">
         <v>40.005031711850002</v>
@@ -1578,10 +1650,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>82.174404693764998</v>
+        <v>74.664130510082998</v>
       </c>
       <c r="C18">
-        <v>87.638430218395996</v>
+        <v>75.355370536864996</v>
       </c>
       <c r="D18">
         <v>40.957565736684003</v>
@@ -1601,10 +1673,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>82.022988665168995</v>
+        <v>74.861108702598997</v>
       </c>
       <c r="C19">
-        <v>100.72892051885501</v>
+        <v>87.499106777747002</v>
       </c>
       <c r="D19">
         <v>41.352470524521003</v>
@@ -1624,10 +1696,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>80.374417014722994</v>
+        <v>73.654722906665995</v>
       </c>
       <c r="C20">
-        <v>86.294489418492006</v>
+        <v>77.239821583215999</v>
       </c>
       <c r="D20">
         <v>41.377350711883999</v>
@@ -1647,10 +1719,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>80.062250635960993</v>
+        <v>73.206182846738997</v>
       </c>
       <c r="C21">
-        <v>70.418568515968005</v>
+        <v>64.196182513742002</v>
       </c>
       <c r="D21">
         <v>41.071171881768997</v>
@@ -1670,10 +1742,10 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>78.826384250765003</v>
+        <v>73.955461492688002</v>
       </c>
       <c r="C22">
-        <v>68.498295590113997</v>
+        <v>61.471991990292999</v>
       </c>
       <c r="D22">
         <v>40.095952771034</v>
@@ -1693,10 +1765,10 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>81.397839670352994</v>
+        <v>74.271446020089002</v>
       </c>
       <c r="C23">
-        <v>69.031556197092996</v>
+        <v>61.252990526862</v>
       </c>
       <c r="D23">
         <v>39.822303594204001</v>
@@ -1716,10 +1788,10 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>81.484779411789006</v>
+        <v>73.804898866650007</v>
       </c>
       <c r="C24">
-        <v>109.718132046195</v>
+        <v>88.913288849726001</v>
       </c>
       <c r="D24">
         <v>39.155114573469</v>
@@ -1739,10 +1811,10 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>82.764764734902997</v>
+        <v>75.649271431707007</v>
       </c>
       <c r="C25">
-        <v>111.11206534379301</v>
+        <v>90.713361612805997</v>
       </c>
       <c r="D25">
         <v>39.600450099566999</v>
@@ -1762,10 +1834,10 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>80.818279358672001</v>
+        <v>73.515605228026004</v>
       </c>
       <c r="C26">
-        <v>106.698000299535</v>
+        <v>87.815447561747007</v>
       </c>
       <c r="D26">
         <v>39.629821475025999</v>
@@ -1785,10 +1857,10 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>78.974123131065994</v>
+        <v>72.420021735221994</v>
       </c>
       <c r="C27">
-        <v>87.088217276698003</v>
+        <v>75.149784061706001</v>
       </c>
       <c r="D27">
         <v>39.437491418458997</v>
@@ -1808,10 +1880,10 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>83.634174828171993</v>
+        <v>76.570554247925998</v>
       </c>
       <c r="C28">
-        <v>79.054858433028997</v>
+        <v>68.220501814014995</v>
       </c>
       <c r="D28">
         <v>39.626755192928997</v>
@@ -1831,10 +1903,10 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>83.340730368037995</v>
+        <v>76.318309767892998</v>
       </c>
       <c r="C29">
-        <v>78.568858412395997</v>
+        <v>70.216757052781006</v>
       </c>
       <c r="D29">
         <v>39.752330848820002</v>
@@ -1854,10 +1926,10 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>86.043335854975993</v>
+        <v>77.835891213815003</v>
       </c>
       <c r="C30">
-        <v>90.343838156686999</v>
+        <v>77.802659830902002</v>
       </c>
       <c r="D30">
         <v>41.079092185707999</v>
@@ -1877,10 +1949,10 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>85.133092459340006</v>
+        <v>77.493344897333998</v>
       </c>
       <c r="C31">
-        <v>98.246480626025999</v>
+        <v>84.827823379752999</v>
       </c>
       <c r="D31">
         <v>41.079287995192999</v>
@@ -1900,10 +1972,10 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>82.825504633736003</v>
+        <v>75.665844299564</v>
       </c>
       <c r="C32">
-        <v>83.488730617281007</v>
+        <v>74.945761404248003</v>
       </c>
       <c r="D32">
         <v>39.838268740672</v>
@@ -1923,10 +1995,10 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>83.431646359666004</v>
+        <v>76.114574146023003</v>
       </c>
       <c r="C33">
-        <v>68.021825769562994</v>
+        <v>61.588411377120998</v>
       </c>
       <c r="D33">
         <v>39.382574531552002</v>
@@ -1946,10 +2018,10 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>81.913709128708007</v>
+        <v>76.491140869831995</v>
       </c>
       <c r="C34">
-        <v>65.611203004383995</v>
+        <v>59.752815717139001</v>
       </c>
       <c r="D34">
         <v>40.088043180325997</v>
@@ -1969,10 +2041,10 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>85.045223500397995</v>
+        <v>77.160903447516006</v>
       </c>
       <c r="C35">
-        <v>73.486833310172997</v>
+        <v>64.657805801045001</v>
       </c>
       <c r="D35">
         <v>39.099826295804</v>
@@ -1992,10 +2064,10 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>85.548461469133997</v>
+        <v>77.235093879681997</v>
       </c>
       <c r="C36">
-        <v>115.600422370369</v>
+        <v>93.311601677255993</v>
       </c>
       <c r="D36">
         <v>39.169206341328</v>
@@ -2015,10 +2087,10 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>85.724265228131998</v>
+        <v>78.083548965220004</v>
       </c>
       <c r="C37">
-        <v>113.849527346877</v>
+        <v>93.349471308622</v>
       </c>
       <c r="D37">
         <v>41.712131922208002</v>
@@ -2038,10 +2110,10 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>83.034206416765002</v>
+        <v>75.413723601005003</v>
       </c>
       <c r="C38">
-        <v>97.847728736861995</v>
+        <v>80.668535794380006</v>
       </c>
       <c r="D38">
         <v>42.019477188346997</v>
@@ -2061,10 +2133,10 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>81.195305710498005</v>
+        <v>74.122589725283007</v>
       </c>
       <c r="C39">
-        <v>84.214419678235004</v>
+        <v>71.936698586074996</v>
       </c>
       <c r="D39">
         <v>43.222584660529002</v>
@@ -2084,10 +2156,10 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>84.621771904997999</v>
+        <v>77.074854608140996</v>
       </c>
       <c r="C40">
-        <v>73.929451649309996</v>
+        <v>63.412448942585002</v>
       </c>
       <c r="D40">
         <v>42.862173490898002</v>
@@ -2107,10 +2179,10 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>84.969914987172999</v>
+        <v>77.599479346221997</v>
       </c>
       <c r="C41">
-        <v>77.878281304889995</v>
+        <v>68.462732933303997</v>
       </c>
       <c r="D41">
         <v>41.124198784562999</v>
@@ -2130,10 +2202,10 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>88.205792798256994</v>
+        <v>79.350268774773994</v>
       </c>
       <c r="C42">
-        <v>89.268090380114998</v>
+        <v>77.094490972757001</v>
       </c>
       <c r="D42">
         <v>40.653950418611998</v>
@@ -2153,10 +2225,10 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>86.053342060416995</v>
+        <v>77.824628120436003</v>
       </c>
       <c r="C43">
-        <v>85.551023404679995</v>
+        <v>75.010521400505993</v>
       </c>
       <c r="D43">
         <v>41.055830727975</v>
@@ -2176,10 +2248,10 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>84.461541265215004</v>
+        <v>76.7233942095</v>
       </c>
       <c r="C44">
-        <v>91.479056974643996</v>
+        <v>80.761168050964997</v>
       </c>
       <c r="D44">
         <v>41.125404075920002</v>
@@ -2199,10 +2271,10 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>85.844730358842995</v>
+        <v>77.971653802663994</v>
       </c>
       <c r="C45">
-        <v>71.253094430621005</v>
+        <v>64.655984312341999</v>
       </c>
       <c r="D45">
         <v>40.308235865889003</v>
@@ -2222,10 +2294,10 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>84.332318575043004</v>
+        <v>78.723733139901995</v>
       </c>
       <c r="C46">
-        <v>64.603292148986995</v>
+        <v>59.118641916809999</v>
       </c>
       <c r="D46">
         <v>41.708963780631002</v>
@@ -2245,10 +2317,10 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>87.672565950001996</v>
+        <v>79.831450006672995</v>
       </c>
       <c r="C47">
-        <v>71.326891910586994</v>
+        <v>62.916580907655003</v>
       </c>
       <c r="D47">
         <v>41.971550838587</v>
@@ -2268,10 +2340,10 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>88.151791945523001</v>
+        <v>79.761423403608006</v>
       </c>
       <c r="C48">
-        <v>108.08647031999099</v>
+        <v>90.476193990537993</v>
       </c>
       <c r="D48">
         <v>42.105013533792999</v>
@@ -2291,10 +2363,10 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>89.027930595637997</v>
+        <v>80.986013149580003</v>
       </c>
       <c r="C49">
-        <v>104.77149926855201</v>
+        <v>87.446820542137004</v>
       </c>
       <c r="D49">
         <v>44.332791536949998</v>
@@ -2314,10 +2386,10 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>87.359754234513005</v>
+        <v>79.527855735794006</v>
       </c>
       <c r="C50">
-        <v>107.68757917568399</v>
+        <v>88.651394102826998</v>
       </c>
       <c r="D50">
         <v>43.941498399982002</v>
@@ -2337,10 +2409,10 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>84.390967626988996</v>
+        <v>77.060243763854004</v>
       </c>
       <c r="C51">
-        <v>83.936479856340995</v>
+        <v>71.407380269531998</v>
       </c>
       <c r="D51">
         <v>43.910020768118002</v>
@@ -2360,10 +2432,10 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>88.256401372561001</v>
+        <v>80.774608290971003</v>
       </c>
       <c r="C52">
-        <v>73.357050908907993</v>
+        <v>63.712680075221002</v>
       </c>
       <c r="D52">
         <v>45.602881088803997</v>
@@ -2383,10 +2455,10 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>88.776340901584007</v>
+        <v>81.290226114084007</v>
       </c>
       <c r="C53">
-        <v>79.753069510394994</v>
+        <v>71.132209837274004</v>
       </c>
       <c r="D53">
         <v>44.785435891577997</v>
@@ -2406,10 +2478,10 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>92.507229360904006</v>
+        <v>83.847142136372995</v>
       </c>
       <c r="C54">
-        <v>95.992303824005006</v>
+        <v>82.385425667248001</v>
       </c>
       <c r="D54">
         <v>44.650804190865003</v>
@@ -2429,10 +2501,10 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>91.033630848187002</v>
+        <v>82.885945231118001</v>
       </c>
       <c r="C55">
-        <v>101.920462800229</v>
+        <v>89.922489907108002</v>
       </c>
       <c r="D55">
         <v>44.233933754907</v>
@@ -2452,10 +2524,10 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>89.192776930863005</v>
+        <v>81.521710544493004</v>
       </c>
       <c r="C56">
-        <v>87.691774627727995</v>
+        <v>79.947651629014999</v>
       </c>
       <c r="D56">
         <v>44.867405533193001</v>
@@ -2475,10 +2547,10 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>89.619818596306004</v>
+        <v>81.796673019235001</v>
       </c>
       <c r="C57">
-        <v>70.610412384762</v>
+        <v>63.548550556701997</v>
       </c>
       <c r="D57">
         <v>45.038260799334999</v>
@@ -2498,10 +2570,10 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>87.857280919619996</v>
+        <v>82.168569226139994</v>
       </c>
       <c r="C58">
-        <v>65.376543514260007</v>
+        <v>59.738747503385</v>
       </c>
       <c r="D58">
         <v>45.060374418395</v>
@@ -2521,10 +2593,10 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>91.927158153375004</v>
+        <v>83.802985910401006</v>
       </c>
       <c r="C59">
-        <v>82.292012558143995</v>
+        <v>73.131364790730998</v>
       </c>
       <c r="D59">
         <v>44.301648185090997</v>
@@ -2544,10 +2616,10 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>90.829764939975007</v>
+        <v>82.447981898874005</v>
       </c>
       <c r="C60">
-        <v>111.759529251873</v>
+        <v>91.770544741847004</v>
       </c>
       <c r="D60">
         <v>43.188289674998003</v>
@@ -2567,10 +2639,10 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>91.595771279703996</v>
+        <v>83.193288885966993</v>
       </c>
       <c r="C61">
-        <v>127.587864524068</v>
+        <v>103.250428009595</v>
       </c>
       <c r="D61">
         <v>44.787074059931001</v>
@@ -2590,10 +2662,10 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>88.174817219133999</v>
+        <v>80.357608659396007</v>
       </c>
       <c r="C62">
-        <v>103.202232433465</v>
+        <v>85.252024683873998</v>
       </c>
       <c r="D62">
         <v>42.741221973401998</v>
@@ -2613,10 +2685,10 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>86.082139212819996</v>
+        <v>78.607327960397001</v>
       </c>
       <c r="C63">
-        <v>91.065845270951996</v>
+        <v>76.785520578559002</v>
       </c>
       <c r="D63">
         <v>42.377794728391002</v>
@@ -2636,10 +2708,10 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>90.518959658091006</v>
+        <v>82.995189302621995</v>
       </c>
       <c r="C64">
-        <v>80.471805259543999</v>
+        <v>70.310842174230999</v>
       </c>
       <c r="D64">
         <v>43.567732769547</v>
@@ -2659,10 +2731,10 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>90.729105044172002</v>
+        <v>83.300659920235006</v>
       </c>
       <c r="C65">
-        <v>83.443382617059996</v>
+        <v>73.656864302490007</v>
       </c>
       <c r="D65">
         <v>43.441486719152998</v>
@@ -2682,10 +2754,10 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>93.667536839758</v>
+        <v>84.996678768707</v>
       </c>
       <c r="C66">
-        <v>100.291664274803</v>
+        <v>86.272158227838005</v>
       </c>
       <c r="D66">
         <v>43.753407724589003</v>
@@ -2705,10 +2777,10 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>93.522525245726001</v>
+        <v>84.993760712135</v>
       </c>
       <c r="C67">
-        <v>111.54960818531499</v>
+        <v>97.299091900175</v>
       </c>
       <c r="D67">
         <v>43.069396217955997</v>
@@ -2728,10 +2800,10 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>91.740487722940003</v>
+        <v>83.558176766396002</v>
       </c>
       <c r="C68">
-        <v>94.310386635255995</v>
+        <v>84.691700335684004</v>
       </c>
       <c r="D68">
         <v>42.962881260261</v>
@@ -2751,10 +2823,10 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>91.675088617118007</v>
+        <v>83.707344399125006</v>
       </c>
       <c r="C69">
-        <v>75.838238143336</v>
+        <v>68.968552660894005</v>
       </c>
       <c r="D69">
         <v>43.986291684984003</v>
@@ -2774,10 +2846,10 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>90.417940570097997</v>
+        <v>84.225485012394003</v>
       </c>
       <c r="C70">
-        <v>66.041790211638002</v>
+        <v>60.541983374245</v>
       </c>
       <c r="D70">
         <v>43.023769283466002</v>
@@ -2797,10 +2869,10 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>94.633706755568994</v>
+        <v>86.015559893344005</v>
       </c>
       <c r="C71">
-        <v>87.97235467246</v>
+        <v>76.787795458158996</v>
       </c>
       <c r="D71">
         <v>41.266570387477998</v>
@@ -2820,10 +2892,10 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>93.464674848553997</v>
+        <v>84.383824044432998</v>
       </c>
       <c r="C72">
-        <v>129.38981775680099</v>
+        <v>106.571656836751</v>
       </c>
       <c r="D72">
         <v>40.856834279973</v>
@@ -2843,10 +2915,10 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>93.329446651691001</v>
+        <v>84.463491743690994</v>
       </c>
       <c r="C73">
-        <v>110.011606937951</v>
+        <v>89.805964527103995</v>
       </c>
       <c r="D73">
         <v>42.820180786066999</v>
@@ -2866,10 +2938,10 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>90.322906063519994</v>
+        <v>81.864166937028003</v>
       </c>
       <c r="C74">
-        <v>104.540658829528</v>
+        <v>87.999415913834</v>
       </c>
       <c r="D74">
         <v>42.182214698816999</v>
@@ -2889,10 +2961,10 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>87.804753935597006</v>
+        <v>80.146601325516002</v>
       </c>
       <c r="C75">
-        <v>88.112339260308005</v>
+        <v>75.896374249906998</v>
       </c>
       <c r="D75">
         <v>41.220788409099001</v>
@@ -2912,10 +2984,10 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>91.599296813660999</v>
+        <v>83.320527023672994</v>
       </c>
       <c r="C76">
-        <v>76.090057788050004</v>
+        <v>66.348516825898997</v>
       </c>
       <c r="D76">
         <v>41.896449634047997</v>
@@ -2935,10 +3007,10 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>92.421323901722999</v>
+        <v>84.508159419205001</v>
       </c>
       <c r="C77">
-        <v>85.971365208386999</v>
+        <v>77.379843455783003</v>
       </c>
       <c r="D77">
         <v>40.153081011391997</v>
@@ -2958,10 +3030,10 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>94.733044026702999</v>
+        <v>85.365389985945995</v>
       </c>
       <c r="C78">
-        <v>105.93714980334499</v>
+        <v>91.372117728459003</v>
       </c>
       <c r="D78">
         <v>38.911996368962001</v>
@@ -2981,10 +3053,10 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>95.128659520856999</v>
+        <v>86.112085865400999</v>
       </c>
       <c r="C79">
-        <v>108.34423576084301</v>
+        <v>95.055841821271002</v>
       </c>
       <c r="D79">
         <v>37.690265007720001</v>
@@ -3004,10 +3076,10 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>93.505667832476007</v>
+        <v>84.993701095863003</v>
       </c>
       <c r="C80">
-        <v>99.347005012088005</v>
+        <v>90.394399228504994</v>
       </c>
       <c r="D80">
         <v>36.703523097359998</v>
@@ -3027,10 +3099,10 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>92.232882113271003</v>
+        <v>83.754792677614006</v>
       </c>
       <c r="C81">
-        <v>67.551434021846006</v>
+        <v>61.858347291721998</v>
       </c>
       <c r="D81">
         <v>37.261608880235997</v>
@@ -3050,10 +3122,10 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>90.162237258730002</v>
+        <v>83.727671136240005</v>
       </c>
       <c r="C82">
-        <v>64.133078448188996</v>
+        <v>57.816346721294003</v>
       </c>
       <c r="D82">
         <v>36.655757017577002</v>
@@ -3073,10 +3145,10 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>94.945754996963998</v>
+        <v>86.047447197126999</v>
       </c>
       <c r="C83">
-        <v>89.370794182873993</v>
+        <v>78.227051297000997</v>
       </c>
       <c r="D83">
         <v>34.207808884236997</v>
@@ -3096,10 +3168,10 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>93.013003675815</v>
+        <v>83.858306525605002</v>
       </c>
       <c r="C84">
-        <v>121.727898365483</v>
+        <v>101.098076246381</v>
       </c>
       <c r="D84">
         <v>34.949981333476998</v>
@@ -3119,10 +3191,10 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>91.271667530467994</v>
+        <v>82.600525423134002</v>
       </c>
       <c r="C85">
-        <v>125.24131058781801</v>
+        <v>103.044140525554</v>
       </c>
       <c r="D85">
         <v>34.998662925250997</v>
@@ -3142,10 +3214,10 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>84.778804453649002</v>
+        <v>75.921516014526006</v>
       </c>
       <c r="C86">
-        <v>103.793145874754</v>
+        <v>86.909367980316006</v>
       </c>
       <c r="D86">
         <v>34.408357698124</v>
@@ -3165,10 +3237,10 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>82.140755938303997</v>
+        <v>73.893837976377995</v>
       </c>
       <c r="C87">
-        <v>81.452837336388001</v>
+        <v>69.852838478915999</v>
       </c>
       <c r="D87">
         <v>33.402302324951002</v>
@@ -3188,10 +3260,10 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>86.445258952572999</v>
+        <v>77.994558705204994</v>
       </c>
       <c r="C88">
-        <v>79.304914639610004</v>
+        <v>69.072561846941994</v>
       </c>
       <c r="D88">
         <v>33.472771550429002</v>
@@ -3211,10 +3283,10 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>84.740457627392004</v>
+        <v>76.665811279644004</v>
       </c>
       <c r="C89">
-        <v>88.780482711603995</v>
+        <v>79.097808362128006</v>
       </c>
       <c r="D89">
         <v>34.600273054943997</v>
@@ -3234,10 +3306,10 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>86.778124644230999</v>
+        <v>77.425021927608</v>
       </c>
       <c r="C90">
-        <v>100.37162202598</v>
+        <v>85.142161790393999</v>
       </c>
       <c r="D90">
         <v>33.193280715325002</v>
@@ -3257,10 +3329,10 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>87.780195087316002</v>
+        <v>78.721130648659994</v>
       </c>
       <c r="C91">
-        <v>107.974718681588</v>
+        <v>93.811789453117001</v>
       </c>
       <c r="D91">
         <v>34.225594932537</v>
@@ -3280,10 +3352,10 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>88.210568150927003</v>
+        <v>79.639975571530002</v>
       </c>
       <c r="C92">
-        <v>92.776364697660995</v>
+        <v>83.663976341307006</v>
       </c>
       <c r="D92">
         <v>36.050174206744998</v>
@@ -3303,10 +3375,10 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>87.370744513562997</v>
+        <v>78.924653533929998</v>
       </c>
       <c r="C93">
-        <v>69.685950260647004</v>
+        <v>62.648172813909</v>
       </c>
       <c r="D93">
         <v>34.530559234720997</v>
@@ -3326,10 +3398,10 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>86.011060722284</v>
+        <v>79.575564209624005</v>
       </c>
       <c r="C94">
-        <v>64.027430712967998</v>
+        <v>58.973530332281001</v>
       </c>
       <c r="D94">
         <v>34.499310914771002</v>
@@ -3349,10 +3421,10 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>90.995211089107997</v>
+        <v>82.238405065840993</v>
       </c>
       <c r="C95">
-        <v>82.683949083990001</v>
+        <v>71.753008914233007</v>
       </c>
       <c r="D95">
         <v>32.609581622264002</v>
@@ -3372,10 +3444,10 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>91.898821171959995</v>
+        <v>82.806708351867002</v>
       </c>
       <c r="C96">
-        <v>120.290253713364</v>
+        <v>98.646229537655003</v>
       </c>
       <c r="D96">
         <v>33.170739517975001</v>
@@ -3395,10 +3467,10 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>91.218647441241998</v>
+        <v>82.672108835312997</v>
       </c>
       <c r="C97">
-        <v>119.787320121699</v>
+        <v>98.581987363931006</v>
       </c>
       <c r="D97">
         <v>33.986489860492</v>
@@ -3418,10 +3490,10 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>87.569472752379994</v>
+        <v>78.447220930715005</v>
       </c>
       <c r="C98">
-        <v>93.171350858767994</v>
+        <v>78.358912151878002</v>
       </c>
       <c r="D98">
         <v>34.801952208933002</v>
@@ -3441,10 +3513,10 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>85.539157712562002</v>
+        <v>77.296018592769997</v>
       </c>
       <c r="C99">
-        <v>88.003951874679004</v>
+        <v>74.848797476792996</v>
       </c>
       <c r="D99">
         <v>34.258568869686002</v>
@@ -3464,10 +3536,10 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>91.509443809838999</v>
+        <v>82.564368161161994</v>
       </c>
       <c r="C100">
-        <v>77.41029970164</v>
+        <v>67.694859290132996</v>
       </c>
       <c r="D100">
         <v>34.669094444700001</v>
@@ -3487,10 +3559,10 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>90.403895202651</v>
+        <v>82.546060547216001</v>
       </c>
       <c r="C101">
-        <v>94.540937271350003</v>
+        <v>84.177665710320994</v>
       </c>
       <c r="D101">
         <v>35.036058935423</v>
@@ -3510,10 +3582,10 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>93.170965161655005</v>
+        <v>83.635547138142996</v>
       </c>
       <c r="C102">
-        <v>108.860892483375</v>
+        <v>93.927245454949997</v>
       </c>
       <c r="D102">
         <v>35.593787418353003</v>
@@ -3533,10 +3605,10 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>92.699727205670001</v>
+        <v>83.583960623210004</v>
       </c>
       <c r="C103">
-        <v>109.531074476347</v>
+        <v>95.324306335537003</v>
       </c>
       <c r="D103">
         <v>36.779916995592998</v>
@@ -3556,10 +3628,10 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>92.201543493227007</v>
+        <v>83.672563591957996</v>
       </c>
       <c r="C104">
-        <v>98.289315271522</v>
+        <v>88.868066246189002</v>
       </c>
       <c r="D104">
         <v>36.927883087241</v>
@@ -3579,10 +3651,10 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>91.892031997109996</v>
+        <v>83.134777345207993</v>
       </c>
       <c r="C105">
-        <v>73.333070449543001</v>
+        <v>65.733078089106996</v>
       </c>
       <c r="D105">
         <v>37.200570089579998</v>
@@ -3602,10 +3674,10 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>90.243798602986999</v>
+        <v>83.249270201927004</v>
       </c>
       <c r="C106">
-        <v>71.467288803936995</v>
+        <v>65.647687089574006</v>
       </c>
       <c r="D106">
         <v>38.33026169163</v>
@@ -3625,10 +3697,10 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>94.603902177433</v>
+        <v>85.199379631707998</v>
       </c>
       <c r="C107">
-        <v>84.735133419343995</v>
+        <v>73.613893369595999</v>
       </c>
       <c r="D107">
         <v>37.408578165013999</v>
@@ -3648,10 +3720,10 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>95.529546656248996</v>
+        <v>85.865653038293004</v>
       </c>
       <c r="C108">
-        <v>124.81915882700901</v>
+        <v>101.65961886200201</v>
       </c>
       <c r="D108">
         <v>37.177350050835003</v>
@@ -3671,10 +3743,10 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>95.034231990218004</v>
+        <v>85.779269032670001</v>
       </c>
       <c r="C109">
-        <v>114.99092513864601</v>
+        <v>93.547834721498006</v>
       </c>
       <c r="D109">
         <v>38.176654187144997</v>
@@ -3694,10 +3766,10 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>91.056196234096006</v>
+        <v>81.945286600323001</v>
       </c>
       <c r="C110">
-        <v>93.804966680511001</v>
+        <v>79.408239492665999</v>
       </c>
       <c r="D110">
         <v>38.462362621981001</v>
@@ -3717,10 +3789,10 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>88.893398329682995</v>
+        <v>80.380154014412</v>
       </c>
       <c r="C111">
-        <v>80.923052057749999</v>
+        <v>70.907182655789001</v>
       </c>
       <c r="D111">
         <v>38.441310674972001</v>
@@ -3740,10 +3812,10 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>94.354329213792994</v>
+        <v>85.773559683469003</v>
       </c>
       <c r="C112">
-        <v>84.919066704635</v>
+        <v>73.788636298667001</v>
       </c>
       <c r="D112">
         <v>38.323262246935002</v>
@@ -3763,10 +3835,10 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>92.373791899625004</v>
+        <v>83.689647829465997</v>
       </c>
       <c r="C113">
-        <v>83.100632518501001</v>
+        <v>74.68835105558</v>
       </c>
       <c r="D113">
         <v>37.626520746848001</v>
@@ -3786,10 +3858,10 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>96.291833970366994</v>
+        <v>86.324319430417006</v>
       </c>
       <c r="C114">
-        <v>96.549901063205994</v>
+        <v>84.999197608819003</v>
       </c>
       <c r="D114">
         <v>37.359706575395002</v>
@@ -3809,10 +3881,10 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>96.154285583721006</v>
+        <v>86.581991701193999</v>
       </c>
       <c r="C115">
-        <v>92.870986016798994</v>
+        <v>81.449653154098996</v>
       </c>
       <c r="D115">
         <v>38.767404368535999</v>
@@ -3832,10 +3904,10 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>95.988005301624</v>
+        <v>86.827438201744997</v>
       </c>
       <c r="C116">
-        <v>97.367222306062999</v>
+        <v>86.846025413825004</v>
       </c>
       <c r="D116">
         <v>39.753703316429998</v>
@@ -3855,10 +3927,10 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>95.884166839586996</v>
+        <v>86.706910676144005</v>
       </c>
       <c r="C117">
-        <v>77.215441040889999</v>
+        <v>69.141855912205997</v>
       </c>
       <c r="D117">
         <v>38.902257492951001</v>
@@ -3878,10 +3950,10 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>93.7565993945</v>
+        <v>86.319620916125004</v>
       </c>
       <c r="C118">
-        <v>67.425762164157007</v>
+        <v>63.564331588607999</v>
       </c>
       <c r="D118">
         <v>38.482258123392</v>
@@ -3901,10 +3973,10 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>98.357448574445996</v>
+        <v>88.503133555372003</v>
       </c>
       <c r="C119">
-        <v>82.548465747188004</v>
+        <v>73.621625383430001</v>
       </c>
       <c r="D119">
         <v>37.709374678644998</v>
@@ -3924,10 +3996,10 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>100.506982925537</v>
+        <v>90.232153931040997</v>
       </c>
       <c r="C120">
-        <v>122.321847201944</v>
+        <v>100.81728653667101</v>
       </c>
       <c r="D120">
         <v>37.423838980920998</v>
@@ -3947,10 +4019,10 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>98.679588448122004</v>
+        <v>89.092604205631005</v>
       </c>
       <c r="C121">
-        <v>116.381988653352</v>
+        <v>98.930386632034995</v>
       </c>
       <c r="D121">
         <v>37.714854775456999</v>
@@ -3970,10 +4042,10 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>95.016252695730003</v>
+        <v>85.641061122764</v>
       </c>
       <c r="C122">
-        <v>94.802835575548997</v>
+        <v>80.477267695711006</v>
       </c>
       <c r="D122">
         <v>39.360421363222997</v>
@@ -3993,10 +4065,10 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>92.846758081250002</v>
+        <v>84.287757634027002</v>
       </c>
       <c r="C123">
-        <v>86.979336580522002</v>
+        <v>75.662666145714994</v>
       </c>
       <c r="D123">
         <v>38.980432396401</v>
@@ -4016,10 +4088,10 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>98.113197594010003</v>
+        <v>89.222551114783997</v>
       </c>
       <c r="C124">
-        <v>87.054949337292996</v>
+        <v>75.991521981372998</v>
       </c>
       <c r="D124">
         <v>38.875000703174997</v>
@@ -4039,10 +4111,10 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>96.984183120569995</v>
+        <v>88.080122681372004</v>
       </c>
       <c r="C125">
-        <v>90.146805426621</v>
+        <v>80.497306965934996</v>
       </c>
       <c r="D125">
         <v>40.224532607652002</v>
@@ -4062,10 +4134,10 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>99.618953776216998</v>
+        <v>89.455247573492997</v>
       </c>
       <c r="C126">
-        <v>101.983760756979</v>
+        <v>89.433391441550995</v>
       </c>
       <c r="D126">
         <v>39.732253561534002</v>
@@ -4085,10 +4157,10 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>99.673704754056004</v>
+        <v>89.794086068870996</v>
       </c>
       <c r="C127">
-        <v>115.280826503223</v>
+        <v>101.75672980009401</v>
       </c>
       <c r="D127">
         <v>39.713253382883003</v>
@@ -4108,10 +4180,10 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>99.668962994091999</v>
+        <v>90.213172881901002</v>
       </c>
       <c r="C128">
-        <v>99.490947797993996</v>
+        <v>89.981739637855</v>
       </c>
       <c r="D128">
         <v>41.147825546828003</v>
@@ -4131,10 +4203,10 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>98.516646679762999</v>
+        <v>88.844446127165</v>
       </c>
       <c r="C129">
-        <v>78.192215065582005</v>
+        <v>71.178942023719003</v>
       </c>
       <c r="D129">
         <v>40.783200354222998</v>
@@ -4154,10 +4226,10 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>96.192158088035995</v>
+        <v>88.319069960155005</v>
       </c>
       <c r="C130">
-        <v>65.438803151578</v>
+        <v>60.127363836363998</v>
       </c>
       <c r="D130">
         <v>39.355022500154</v>
@@ -4177,10 +4249,10 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>101.169073993726</v>
+        <v>90.753696723738997</v>
       </c>
       <c r="C131">
-        <v>85.478345340508</v>
+        <v>75.573902425523002</v>
       </c>
       <c r="D131">
         <v>39.629339806128002</v>
@@ -4200,10 +4272,10 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>104.002852058344</v>
+        <v>92.969008525264002</v>
       </c>
       <c r="C132">
-        <v>137.38000674546001</v>
+        <v>112.927838291199</v>
       </c>
       <c r="D132">
         <v>39.121394785678</v>
@@ -4223,10 +4295,10 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>101.476606563064</v>
+        <v>91.405488820971996</v>
       </c>
       <c r="C133">
-        <v>127.609821299416</v>
+        <v>106.169892632078</v>
       </c>
       <c r="D133">
         <v>41.139502632716002</v>
@@ -4246,10 +4318,10 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>97.289231745025006</v>
+        <v>87.009585611117004</v>
       </c>
       <c r="C134">
-        <v>103.62391619786401</v>
+        <v>88.040578573969</v>
       </c>
       <c r="D134">
         <v>41.613375849309001</v>
@@ -4269,10 +4341,10 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>95.017747894517001</v>
+        <v>85.419715570335995</v>
       </c>
       <c r="C135">
-        <v>89.865723093903</v>
+        <v>78.031283838468994</v>
       </c>
       <c r="D135">
         <v>39.688212720411997</v>
@@ -4292,10 +4364,10 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>99.702802305703997</v>
+        <v>89.895711426749003</v>
       </c>
       <c r="C136">
-        <v>77.177527786748996</v>
+        <v>68.609070249691996</v>
       </c>
       <c r="D136">
         <v>39.933931587186002</v>
@@ -4315,10 +4387,10 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>97.606130237176004</v>
+        <v>88.192812110473994</v>
       </c>
       <c r="C137">
-        <v>95.372666418801998</v>
+        <v>86.083370962691006</v>
       </c>
       <c r="D137">
         <v>39.836111711187002</v>
@@ -4338,10 +4410,10 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>101.673982978363</v>
+        <v>91.050459842937997</v>
       </c>
       <c r="C138">
-        <v>109.079722402889</v>
+        <v>95.898812149424003</v>
       </c>
       <c r="D138">
         <v>39.447116122771</v>
@@ -4361,10 +4433,10 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>100.566779655267</v>
+        <v>90.289493354827002</v>
       </c>
       <c r="C139">
-        <v>115.60362886024301</v>
+        <v>103.334934835658</v>
       </c>
       <c r="D139">
         <v>38.770561839289002</v>
@@ -4384,10 +4456,10 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>100.126196242956</v>
+        <v>90.498413460549997</v>
       </c>
       <c r="C140">
-        <v>102.61523117263999</v>
+        <v>94.065230339237999</v>
       </c>
       <c r="D140">
         <v>40.656212356296002</v>
@@ -4407,10 +4479,10 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>100.135575737198</v>
+        <v>90.075342360017004</v>
       </c>
       <c r="C141">
-        <v>76.768356647306007</v>
+        <v>72.091576414859006</v>
       </c>
       <c r="D141">
         <v>40.530821931584001</v>
@@ -4430,10 +4502,10 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>97.496401946256</v>
+        <v>88.874458660924006</v>
       </c>
       <c r="C142">
-        <v>69.064036151043993</v>
+        <v>63.912109051239</v>
       </c>
       <c r="D142">
         <v>39.182486798399999</v>
@@ -4453,10 +4525,10 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>102.947695570145</v>
+        <v>92.134160575300001</v>
       </c>
       <c r="C143">
-        <v>94.558241582823996</v>
+        <v>83.419766567495003</v>
       </c>
       <c r="D143">
         <v>38.077522808406997</v>
@@ -4476,10 +4548,10 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>104.218098587828</v>
+        <v>93.054307040321007</v>
       </c>
       <c r="C144">
-        <v>130.89207115093501</v>
+        <v>108.935088377635</v>
       </c>
       <c r="D144">
         <v>36.946459914668999</v>
@@ -4499,10 +4571,10 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>103.172546180369</v>
+        <v>92.400402119321001</v>
       </c>
       <c r="C145">
-        <v>135.378878534802</v>
+        <v>111.054236969862</v>
       </c>
       <c r="D145">
         <v>37.370687475109001</v>
@@ -4522,10 +4594,10 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>98.174668188983006</v>
+        <v>87.460845449060002</v>
       </c>
       <c r="C146">
-        <v>102.10018657834399</v>
+        <v>86.271810477605996</v>
       </c>
       <c r="D146">
         <v>35.55082196899</v>
@@ -4545,10 +4617,10 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>97.312120740338997</v>
+        <v>87.210600972948995</v>
       </c>
       <c r="C147">
-        <v>98.981243609074994</v>
+        <v>85.741026876134001</v>
       </c>
       <c r="D147">
         <v>35.734569280526998</v>
@@ -4568,10 +4640,10 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>101.580961131249</v>
+        <v>91.708777928421</v>
       </c>
       <c r="C148">
-        <v>82.553025981134994</v>
+        <v>73.373587210329006</v>
       </c>
       <c r="D148">
         <v>37.135146875798</v>
@@ -4591,10 +4663,10 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>100.603370613598</v>
+        <v>90.843416601008997</v>
       </c>
       <c r="C149">
-        <v>96.351218747450005</v>
+        <v>87.090820249944002</v>
       </c>
       <c r="D149">
         <v>37.610133678604001</v>
@@ -4614,10 +4686,10 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>104.716243566412</v>
+        <v>93.651750216579998</v>
       </c>
       <c r="C150">
-        <v>115.437951328442</v>
+        <v>101.63811462724099</v>
       </c>
       <c r="D150">
         <v>37.751338610127</v>
@@ -4637,10 +4709,10 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>103.626749944303</v>
+        <v>92.926341732986003</v>
       </c>
       <c r="C151">
-        <v>116.10806277554001</v>
+        <v>102.898035860615</v>
       </c>
       <c r="D151">
         <v>37.904949226010999</v>
@@ -4660,10 +4732,10 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>103.416420548288</v>
+        <v>93.450291972260004</v>
       </c>
       <c r="C152">
-        <v>108.455859187542</v>
+        <v>97.567373935098004</v>
       </c>
       <c r="D152">
         <v>37.551813280327003</v>
@@ -4683,10 +4755,10 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>102.558714816169</v>
+        <v>92.006983051806003</v>
       </c>
       <c r="C153">
-        <v>81.765726425276</v>
+        <v>76.367087399913999</v>
       </c>
       <c r="D153">
         <v>37.450159922914999</v>
@@ -4706,10 +4778,10 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>99.558014967035007</v>
+        <v>90.879160878440999</v>
       </c>
       <c r="C154">
-        <v>72.019566309835994</v>
+        <v>67.752931922024004</v>
       </c>
       <c r="D154">
         <v>38.219888179972003</v>
@@ -4729,10 +4801,10 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>106.18332726376801</v>
+        <v>94.973807063695006</v>
       </c>
       <c r="C155">
-        <v>91.826088529977994</v>
+        <v>80.235724512085</v>
       </c>
       <c r="D155">
         <v>37.693542023310002</v>
@@ -4752,10 +4824,10 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>107.602149336731</v>
+        <v>95.994415298332996</v>
       </c>
       <c r="C156">
-        <v>132.916042483095</v>
+        <v>110.50616829773</v>
       </c>
       <c r="D156">
         <v>38.475968975641003</v>
@@ -4775,10 +4847,10 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>106.157009293122</v>
+        <v>94.860081976748006</v>
       </c>
       <c r="C157">
-        <v>141.53180581993701</v>
+        <v>116.221263906758</v>
       </c>
       <c r="D157">
         <v>38.691437136761003</v>
@@ -4798,10 +4870,10 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>102.178751315696</v>
+        <v>90.501794790833003</v>
       </c>
       <c r="C158">
-        <v>116.143471847657</v>
+        <v>93.437836777114001</v>
       </c>
       <c r="D158">
         <v>38.062504132065001</v>
@@ -4821,10 +4893,10 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>100.23679373803201</v>
+        <v>89.562329479236993</v>
       </c>
       <c r="C159">
-        <v>99.037735545638</v>
+        <v>87.836413600038995</v>
       </c>
       <c r="D159">
         <v>37.491142610506998</v>
@@ -4844,10 +4916,10 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>104.447971213663</v>
+        <v>93.822626332976995</v>
       </c>
       <c r="C160">
-        <v>81.092551670307003</v>
+        <v>76.092615862748005</v>
       </c>
       <c r="D160">
         <v>38.505218872516998</v>
@@ -4867,10 +4939,10 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>104.21615886976799</v>
+        <v>93.427189325648996</v>
       </c>
       <c r="C161">
-        <v>100.706551555613</v>
+        <v>87.801213247145995</v>
       </c>
       <c r="D161">
         <v>37.842864420837998</v>
@@ -4890,10 +4962,10 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>107.056797948096</v>
+        <v>94.778210921173994</v>
       </c>
       <c r="C162">
-        <v>120.79026283249399</v>
+        <v>102.836189778639</v>
       </c>
       <c r="D162">
         <v>38.031691558285999</v>
@@ -4913,10 +4985,10 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>106.82558282892001</v>
+        <v>95.153134010382999</v>
       </c>
       <c r="C163">
-        <v>111.915323484925</v>
+        <v>98.480754731473994</v>
       </c>
       <c r="D163">
         <v>39.111922237709003</v>
@@ -4936,10 +5008,10 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>106.82851342806001</v>
+        <v>95.594589851790005</v>
       </c>
       <c r="C164">
-        <v>101.48396340548901</v>
+        <v>91.336643036238996</v>
       </c>
       <c r="D164">
         <v>38.131884189947002</v>
@@ -4959,10 +5031,10 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <v>106.478363143519</v>
+        <v>94.932593495885996</v>
       </c>
       <c r="C165">
-        <v>83.810355704751998</v>
+        <v>75.706359167048006</v>
       </c>
       <c r="D165">
         <v>37.383557196311997</v>
@@ -4982,10 +5054,10 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>104.42453100708001</v>
+        <v>94.905469065353998</v>
       </c>
       <c r="C166">
-        <v>74.914626701071995</v>
+        <v>69.968937148975002</v>
       </c>
       <c r="D166">
         <v>37.449011862978999</v>
@@ -5005,10 +5077,10 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>109.14312398649101</v>
+        <v>97.167236297311007</v>
       </c>
       <c r="C167">
-        <v>92.749954249446006</v>
+        <v>80.927288838755999</v>
       </c>
       <c r="D167">
         <v>37.813079113192003</v>
@@ -5028,10 +5100,10 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>109.875938268252</v>
+        <v>97.438620270968997</v>
       </c>
       <c r="C168">
-        <v>129.15220203185899</v>
+        <v>109.88131685600899</v>
       </c>
       <c r="D168">
         <v>38.182935259201997</v>
@@ -5051,10 +5123,10 @@
         <v>172</v>
       </c>
       <c r="B169">
-        <v>108.503874071645</v>
+        <v>96.782307884475003</v>
       </c>
       <c r="C169">
-        <v>145.452152490206</v>
+        <v>127.12835701693599</v>
       </c>
       <c r="D169">
         <v>38.368540211141998</v>
@@ -5074,10 +5146,10 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>105.26341159854501</v>
+        <v>92.476751035481996</v>
       </c>
       <c r="C170">
-        <v>118.042702381911</v>
+        <v>97.767347056768003</v>
       </c>
       <c r="D170">
         <v>38.181521075725001</v>
@@ -5097,10 +5169,10 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>103.326405820186</v>
+        <v>91.760313798468005</v>
       </c>
       <c r="C171">
-        <v>102.408138784188</v>
+        <v>87.310910690631999</v>
       </c>
       <c r="D171">
         <v>36.732083562291997</v>
@@ -5120,10 +5192,10 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>107.169093570356</v>
+        <v>95.379157273581995</v>
       </c>
       <c r="C172">
-        <v>79.799313829762994</v>
+        <v>69.883314992573005</v>
       </c>
       <c r="D172">
         <v>36.814432418720997</v>
@@ -5143,10 +5215,10 @@
         <v>176</v>
       </c>
       <c r="B173">
-        <v>105.279720521095</v>
+        <v>93.795098817427998</v>
       </c>
       <c r="C173">
-        <v>101.38842682452599</v>
+        <v>90.418328223393004</v>
       </c>
       <c r="D173">
         <v>36.713858243741001</v>
@@ -5166,10 +5238,10 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>109.454106524943</v>
+        <v>96.318351739560001</v>
       </c>
       <c r="C174">
-        <v>113.627484828272</v>
+        <v>97.270796581135002</v>
       </c>
       <c r="D174">
         <v>37.484803883049999</v>
@@ -5189,10 +5261,10 @@
         <v>178</v>
       </c>
       <c r="B175">
-        <v>109.580687723567</v>
+        <v>97.054550766473</v>
       </c>
       <c r="C175">
-        <v>127.309489890828</v>
+        <v>108.831549143098</v>
       </c>
       <c r="D175">
         <v>38.349095003102001</v>
@@ -5212,10 +5284,10 @@
         <v>179</v>
       </c>
       <c r="B176">
-        <v>108.39352099447299</v>
+        <v>96.165336984560994</v>
       </c>
       <c r="C176">
-        <v>104.701850653519</v>
+        <v>92.786117915671994</v>
       </c>
       <c r="D176">
         <v>36.506041112359</v>
@@ -5235,10 +5307,10 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>108.208995419875</v>
+        <v>96.234836981626003</v>
       </c>
       <c r="C177">
-        <v>89.827596837713998</v>
+        <v>87.061228182904998</v>
       </c>
       <c r="D177">
         <v>35.655436898837998</v>
@@ -5258,10 +5330,10 @@
         <v>181</v>
       </c>
       <c r="B178">
-        <v>105.671703984826</v>
+        <v>95.284002624779006</v>
       </c>
       <c r="C178">
-        <v>77.027023386638007</v>
+        <v>72.483306639930007</v>
       </c>
       <c r="D178">
         <v>34.754994253749999</v>
@@ -5281,10 +5353,10 @@
         <v>182</v>
       </c>
       <c r="B179">
-        <v>111.608318126743</v>
+        <v>98.729614177735996</v>
       </c>
       <c r="C179">
-        <v>95.246431648536003</v>
+        <v>84.298016772268994</v>
       </c>
       <c r="D179">
         <v>35.031896434495003</v>
@@ -5304,10 +5376,10 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>113.496538290329</v>
+        <v>100.234757825496</v>
       </c>
       <c r="C180">
-        <v>140.73391600266899</v>
+        <v>116.77557491341901</v>
       </c>
       <c r="D180">
         <v>34.875177957368003</v>
@@ -5316,7 +5388,7 @@
         <v>43.689080044792</v>
       </c>
       <c r="F180">
-        <v>45285.5</v>
+        <v>45315.96</v>
       </c>
       <c r="G180">
         <v>20.118500000000001</v>
@@ -5327,10 +5399,10 @@
         <v>184</v>
       </c>
       <c r="B181">
-        <v>112.35768028521299</v>
+        <v>99.658038082920001</v>
       </c>
       <c r="C181">
-        <v>151.71100986584699</v>
+        <v>127.89522490207899</v>
       </c>
       <c r="D181">
         <v>35.478418724981999</v>
@@ -5350,10 +5422,10 @@
         <v>185</v>
       </c>
       <c r="B182">
-        <v>108.81179966753299</v>
+        <v>95.462523051706995</v>
       </c>
       <c r="C182">
-        <v>132.16379165436101</v>
+        <v>110.50305541117299</v>
       </c>
       <c r="D182">
         <v>28.667872479598</v>
@@ -5373,10 +5445,10 @@
         <v>186</v>
       </c>
       <c r="B183">
-        <v>105.671627053924</v>
+        <v>93.635715885180005</v>
       </c>
       <c r="C183">
-        <v>98.441678154154005</v>
+        <v>84.592251096968994</v>
       </c>
       <c r="D183">
         <v>31.515609602348999</v>
@@ -5396,10 +5468,10 @@
         <v>187</v>
       </c>
       <c r="B184">
-        <v>110.30374541881299</v>
+        <v>98.346206852098007</v>
       </c>
       <c r="C184">
-        <v>84.354224996542001</v>
+        <v>74.489928901479999</v>
       </c>
       <c r="D184">
         <v>33.795125366694997</v>
@@ -5419,10 +5491,10 @@
         <v>188</v>
       </c>
       <c r="B185">
-        <v>108.247348979191</v>
+        <v>96.171377125768004</v>
       </c>
       <c r="C185">
-        <v>103.94373935169899</v>
+        <v>91.616610057120994</v>
       </c>
       <c r="D185">
         <v>34.934500730947001</v>
@@ -5442,10 +5514,10 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>111.54620422233801</v>
+        <v>98.498613467259005</v>
       </c>
       <c r="C186">
-        <v>114.67097189073</v>
+        <v>98.55401035621</v>
       </c>
       <c r="D186">
         <v>35.873278680958002</v>
@@ -5465,10 +5537,10 @@
         <v>190</v>
       </c>
       <c r="B187">
-        <v>112.386964871087</v>
+        <v>99.422328276447999</v>
       </c>
       <c r="C187">
-        <v>132.46125412572999</v>
+        <v>114.40392708925501</v>
       </c>
       <c r="D187">
         <v>36.010357040914002</v>
@@ -5488,10 +5560,10 @@
         <v>191</v>
       </c>
       <c r="B188">
-        <v>109.98514464917</v>
+        <v>97.568065518672</v>
       </c>
       <c r="C188">
-        <v>107.92918206620401</v>
+        <v>96.553762545645995</v>
       </c>
       <c r="D188">
         <v>36.488627292064997</v>
@@ -5511,10 +5583,10 @@
         <v>192</v>
       </c>
       <c r="B189">
-        <v>110.995465110119</v>
+        <v>98.489506981587994</v>
       </c>
       <c r="C189">
-        <v>87.538778619431994</v>
+        <v>81.902698902807003</v>
       </c>
       <c r="D189">
         <v>36.505500828123999</v>
@@ -5534,10 +5606,10 @@
         <v>193</v>
       </c>
       <c r="B190">
-        <v>106.30681997809199</v>
+        <v>95.763490663528003</v>
       </c>
       <c r="C190">
-        <v>78.898271966147007</v>
+        <v>73.895519100160001</v>
       </c>
       <c r="D190">
         <v>36.787947686430002</v>
@@ -5557,10 +5629,10 @@
         <v>194</v>
       </c>
       <c r="B191">
-        <v>113.251745819378</v>
+        <v>99.785812402184007</v>
       </c>
       <c r="C191">
-        <v>98.336470755448005</v>
+        <v>85.903037986756004</v>
       </c>
       <c r="D191">
         <v>36.436983240153999</v>
@@ -5580,10 +5652,10 @@
         <v>195</v>
       </c>
       <c r="B192">
-        <v>115.77020629334299</v>
+        <v>102.452283912415</v>
       </c>
       <c r="C192">
-        <v>152.66764294290201</v>
+        <v>129.321428901205</v>
       </c>
       <c r="D192">
         <v>36.716793474580001</v>
@@ -5603,10 +5675,10 @@
         <v>196</v>
       </c>
       <c r="B193">
-        <v>114.90979382387199</v>
+        <v>101.63924288877099</v>
       </c>
       <c r="C193">
-        <v>155.011283763557</v>
+        <v>128.465538676867</v>
       </c>
       <c r="D193">
         <v>36.315462765375997</v>
@@ -5626,10 +5698,10 @@
         <v>197</v>
       </c>
       <c r="B194">
-        <v>110.253035811384</v>
+        <v>96.755336708906</v>
       </c>
       <c r="C194">
-        <v>134.30044008868299</v>
+        <v>112.03490349711301</v>
       </c>
       <c r="D194">
         <v>34.801847205944</v>
@@ -5649,10 +5721,10 @@
         <v>198</v>
       </c>
       <c r="B195">
-        <v>108.19583864939401</v>
+        <v>95.633280499522996</v>
       </c>
       <c r="C195">
-        <v>107.957602348647</v>
+        <v>92.131830660770007</v>
       </c>
       <c r="D195">
         <v>34.189339177953002</v>
@@ -5672,10 +5744,10 @@
         <v>199</v>
       </c>
       <c r="B196">
-        <v>113.135586744271</v>
+        <v>100.923256947146</v>
       </c>
       <c r="C196">
-        <v>90.195740190785003</v>
+        <v>77.898779452189004</v>
       </c>
       <c r="D196">
         <v>34.336726438239999</v>
@@ -5695,10 +5767,10 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>110.28467521439801</v>
+        <v>97.609807201197</v>
       </c>
       <c r="C197">
-        <v>108.218256180079</v>
+        <v>96.620041235241004</v>
       </c>
       <c r="D197">
         <v>35.611584664380999</v>
@@ -5718,10 +5790,10 @@
         <v>201</v>
       </c>
       <c r="B198">
-        <v>115.005447020584</v>
+        <v>101.25377993825001</v>
       </c>
       <c r="C198">
-        <v>124.810391774338</v>
+        <v>108.579313047244</v>
       </c>
       <c r="D198">
         <v>36.647874828558997</v>
@@ -5741,10 +5813,10 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>114.413738614884</v>
+        <v>101.251862654729</v>
       </c>
       <c r="C199">
-        <v>126.71859056525599</v>
+        <v>111.26298448631201</v>
       </c>
       <c r="D199">
         <v>37.148299568801001</v>
@@ -5764,10 +5836,10 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>113.200561991678</v>
+        <v>100.478100555312</v>
       </c>
       <c r="C200">
-        <v>109.30313336209601</v>
+        <v>98.316561439479997</v>
       </c>
       <c r="D200">
         <v>43.341085684473001</v>
@@ -5787,10 +5859,10 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>113.65217726735101</v>
+        <v>100.92040954741</v>
       </c>
       <c r="C201">
-        <v>89.097616717167995</v>
+        <v>81.073429683369994</v>
       </c>
       <c r="D201">
         <v>43.005686306386998</v>
@@ -5810,10 +5882,10 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>109.92133540667599</v>
+        <v>99.126053301363001</v>
       </c>
       <c r="C202">
-        <v>78.876368382416999</v>
+        <v>73.663376670377005</v>
       </c>
       <c r="D202">
         <v>42.132704095465002</v>
@@ -5833,10 +5905,10 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>115.19329669931599</v>
+        <v>101.65935799437</v>
       </c>
       <c r="C203">
-        <v>93.079163101860004</v>
+        <v>82.240723018249</v>
       </c>
       <c r="D203">
         <v>42.533012467452998</v>
@@ -5856,10 +5928,10 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>117.32676657347299</v>
+        <v>103.513876317335</v>
       </c>
       <c r="C204">
-        <v>157.75552590982599</v>
+        <v>131.74700679574801</v>
       </c>
       <c r="D204">
         <v>41.675040786563997</v>
@@ -5879,10 +5951,10 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>114.213673068045</v>
+        <v>101.113366778323</v>
       </c>
       <c r="C205">
-        <v>159.76208087589501</v>
+        <v>134.431050013852</v>
       </c>
       <c r="D205">
         <v>44.865438497928999</v>
@@ -5902,10 +5974,10 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>111.775018304699</v>
+        <v>97.791738978523</v>
       </c>
       <c r="C206">
-        <v>133.67612148199601</v>
+        <v>112.525191647136</v>
       </c>
       <c r="D206">
         <v>45.929883044867999</v>
@@ -5925,10 +5997,10 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>109.288827288546</v>
+        <v>96.252314837569003</v>
       </c>
       <c r="C207">
-        <v>114.381968679547</v>
+        <v>97.18277765162</v>
       </c>
       <c r="D207">
         <v>47.826149713221</v>
@@ -5948,10 +6020,10 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>112.302826811819</v>
+        <v>99.862887629317001</v>
       </c>
       <c r="C208">
-        <v>91.905273550125997</v>
+        <v>79.540766556807</v>
       </c>
       <c r="D208">
         <v>46.341067759577001</v>
@@ -5971,10 +6043,10 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>110.32756886992701</v>
+        <v>98.072417153759005</v>
       </c>
       <c r="C209">
-        <v>106.56701325557199</v>
+        <v>94.070460720228994</v>
       </c>
       <c r="D209">
         <v>45.484973893286003</v>
@@ -5994,10 +6066,10 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>114.65027728114001</v>
+        <v>100.652231382953</v>
       </c>
       <c r="C210">
-        <v>122.907648525017</v>
+        <v>108.36454313495901</v>
       </c>
       <c r="D210">
         <v>44.323546935750997</v>
@@ -6017,10 +6089,10 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>114.093849255393</v>
+        <v>101.01555581740401</v>
       </c>
       <c r="C211">
-        <v>127.954638563629</v>
+        <v>112.991693990751</v>
       </c>
       <c r="D211">
         <v>43.665842320727997</v>
@@ -6040,10 +6112,10 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>112.667546108642</v>
+        <v>99.837608948888999</v>
       </c>
       <c r="C212">
-        <v>111.957956223888</v>
+        <v>100.880582154088</v>
       </c>
       <c r="D212">
         <v>43.317695798679999</v>
@@ -6063,10 +6135,10 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>113.126617330884</v>
+        <v>100.006590538084</v>
       </c>
       <c r="C213">
-        <v>87.692413649431998</v>
+        <v>79.071809972566001</v>
       </c>
       <c r="D213">
         <v>43.819211712737001</v>
@@ -6086,10 +6158,10 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>109.650343073318</v>
+        <v>98.217363586410002</v>
       </c>
       <c r="C214">
-        <v>83.399489770697997</v>
+        <v>78.248397684097</v>
       </c>
       <c r="D214">
         <v>45.299473488517002</v>
@@ -6109,10 +6181,10 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>114.58637511216</v>
+        <v>99.792735129557997</v>
       </c>
       <c r="C215">
-        <v>99.987688107319002</v>
+        <v>87.114543896168996</v>
       </c>
       <c r="D215">
         <v>44.059735903125997</v>
@@ -6132,10 +6204,10 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>116.230496281762</v>
+        <v>102.901974496107</v>
       </c>
       <c r="C216">
-        <v>150.005984020775</v>
+        <v>127.43498099595899</v>
       </c>
       <c r="D216">
         <v>43.840726940102002</v>
@@ -6155,10 +6227,10 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>113.739497589224</v>
+        <v>100.263390896226</v>
       </c>
       <c r="C217">
-        <v>154.23212109284501</v>
+        <v>129.14017524106299</v>
       </c>
       <c r="D217">
         <v>43.757350301180999</v>
@@ -6178,10 +6250,10 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>111.24242185557399</v>
+        <v>97.643669678731996</v>
       </c>
       <c r="C218">
-        <v>132.065121113354</v>
+        <v>112.596440610782</v>
       </c>
       <c r="D218">
         <v>44.120454102384997</v>
@@ -6201,10 +6273,10 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>107.381727288131</v>
+        <v>94.649828409820003</v>
       </c>
       <c r="C219">
-        <v>102.374457021428</v>
+        <v>86.724916097144003</v>
       </c>
       <c r="D219">
         <v>43.329942793901999</v>
@@ -6224,10 +6296,10 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>109.29194663301899</v>
+        <v>96.399635458499006</v>
       </c>
       <c r="C220">
-        <v>96.961220299358999</v>
+        <v>85.092803642912997</v>
       </c>
       <c r="D220">
         <v>42.059280695535001</v>
@@ -6247,10 +6319,10 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>88.336683000009998</v>
+        <v>76.741213352187003</v>
       </c>
       <c r="C221">
-        <v>105.036685806489</v>
+        <v>93.775509425308996</v>
       </c>
       <c r="D221">
         <v>32.223545786244998</v>
@@ -6270,10 +6342,10 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>90.032228711881999</v>
+        <v>77.523814336192004</v>
       </c>
       <c r="C222">
-        <v>121.717751573896</v>
+        <v>109.201580041369</v>
       </c>
       <c r="D222">
         <v>31.068243908700001</v>
@@ -6293,10 +6365,10 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>97.369084446792996</v>
+        <v>86.078654959632999</v>
       </c>
       <c r="C223">
-        <v>121.47102466899101</v>
+        <v>109.658211714017</v>
       </c>
       <c r="D223">
         <v>31.957181906052998</v>
@@ -6316,10 +6388,10 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>101.360834069654</v>
+        <v>89.845644607804005</v>
       </c>
       <c r="C224">
-        <v>120.202921295371</v>
+        <v>109.448097576702</v>
       </c>
       <c r="D224">
         <v>34.417344488575999</v>
@@ -6339,10 +6411,10 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>103.619639705407</v>
+        <v>92.530644310561996</v>
       </c>
       <c r="C225">
-        <v>89.853782412250993</v>
+        <v>81.333755275345993</v>
       </c>
       <c r="D225">
         <v>35.064783138979998</v>
@@ -6362,10 +6434,10 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>102.329537654844</v>
+        <v>92.398854695142006</v>
       </c>
       <c r="C226">
-        <v>86.796968319141001</v>
+        <v>82.229805248402002</v>
       </c>
       <c r="D226">
         <v>36.282043642848002</v>
@@ -6385,10 +6457,10 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>109.022291022171</v>
+        <v>96.231437871843994</v>
       </c>
       <c r="C227">
-        <v>105.87272389731601</v>
+        <v>91.918333931239999</v>
       </c>
       <c r="D227">
         <v>37.891239623548003</v>
@@ -6408,10 +6480,10 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>111.9475870003</v>
+        <v>100.03879685202099</v>
       </c>
       <c r="C228">
-        <v>157.19648596652399</v>
+        <v>129.92680173917401</v>
       </c>
       <c r="D228">
         <v>37.076740993336998</v>
@@ -6431,10 +6503,10 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>109.30030930992901</v>
+        <v>97.254765309023995</v>
       </c>
       <c r="C229">
-        <v>150.17789805028801</v>
+        <v>126.286116013106</v>
       </c>
       <c r="D229">
         <v>38.748705307191997</v>
@@ -6454,10 +6526,10 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>105.545705239936</v>
+        <v>93.870933699481995</v>
       </c>
       <c r="C230">
-        <v>133.09349328716101</v>
+        <v>113.748799524878</v>
       </c>
       <c r="D230">
         <v>39.211395346757001</v>
@@ -6466,7 +6538,7 @@
         <v>42.868581418947002</v>
       </c>
       <c r="F230">
-        <v>45322.405500000008</v>
+        <v>42985.73</v>
       </c>
       <c r="G230">
         <v>19.921500000000002</v>
@@ -6477,10 +6549,10 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>102.802938120487</v>
+        <v>91.172621395872</v>
       </c>
       <c r="C231">
-        <v>105.614142719844</v>
+        <v>89.941126797403996</v>
       </c>
       <c r="D231">
         <v>38.640136961084998</v>
@@ -6489,7 +6561,7 @@
         <v>41.195869587567003</v>
       </c>
       <c r="F231">
-        <v>44521.79631578947</v>
+        <v>44592.91</v>
       </c>
       <c r="G231">
         <v>20.309699999999999</v>
@@ -6500,10 +6572,10 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>111.518641110861</v>
+        <v>98.278066604963001</v>
       </c>
       <c r="C232">
-        <v>94.775579264106995</v>
+        <v>83.252276251656994</v>
       </c>
       <c r="D232">
         <v>40.581572053441</v>
@@ -6512,7 +6584,7 @@
         <v>42.862133503384001</v>
       </c>
       <c r="F232">
-        <v>47032.961363636357</v>
+        <v>47246.26</v>
       </c>
       <c r="G232">
         <v>20.755500000000001</v>
@@ -6523,10 +6595,10 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>107.83486885096301</v>
+        <v>96.577826610705003</v>
       </c>
       <c r="C233">
-        <v>104.110501230672</v>
+        <v>94.819087949215998</v>
       </c>
       <c r="D233">
         <v>42.509073150798997</v>
@@ -6535,7 +6607,7 @@
         <v>45.191910905470998</v>
       </c>
       <c r="F233">
-        <v>48357.7955</v>
+        <v>48009.72</v>
       </c>
       <c r="G233">
         <v>20.0153</v>
@@ -6546,10 +6618,10 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>111.176810448347</v>
+        <v>99.285620933599006</v>
       </c>
       <c r="C234">
-        <v>132.97779757358001</v>
+        <v>117.27431638128201</v>
       </c>
       <c r="D234">
         <v>42.422701068797998</v>
@@ -6558,7 +6630,7 @@
         <v>44.859401747934001</v>
       </c>
       <c r="F234">
-        <v>49328.700952380961</v>
+        <v>50885.95</v>
       </c>
       <c r="G234">
         <v>19.963100000000001</v>
@@ -6569,10 +6641,10 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>110.803499084891</v>
+        <v>97.826539499158002</v>
       </c>
       <c r="C235">
-        <v>132.93166709583099</v>
+        <v>119.108338830376</v>
       </c>
       <c r="D235">
         <v>44.347676509277001</v>
@@ -6581,7 +6653,7 @@
         <v>46.584308581858998</v>
       </c>
       <c r="F235">
-        <v>50618.913181818185</v>
+        <v>50289.75</v>
       </c>
       <c r="G235">
         <v>20.030100000000001</v>
@@ -6592,10 +6664,10 @@
         <v>247</v>
       </c>
       <c r="B236">
-        <v>109.21461340579501</v>
+        <v>97.180219626587004</v>
       </c>
       <c r="C236">
-        <v>119.999505126287</v>
+        <v>108.123475711227</v>
       </c>
       <c r="D236">
         <v>44.293387523756998</v>
@@ -6604,7 +6676,7 @@
         <v>47.760393759563001</v>
       </c>
       <c r="F236">
-        <v>50184.981363636354</v>
+        <v>50868.32</v>
       </c>
       <c r="G236">
         <v>19.970099999999999</v>
@@ -6615,10 +6687,10 @@
         <v>248</v>
       </c>
       <c r="B237">
-        <v>106.90935410265</v>
+        <v>96.379554025561006</v>
       </c>
       <c r="C237">
-        <v>91.162882512973994</v>
+        <v>82.737723243296003</v>
       </c>
       <c r="D237">
         <v>42.474646633177002</v>
@@ -6627,7 +6699,7 @@
         <v>46.161111996122003</v>
       </c>
       <c r="F237">
-        <v>51649.266818181823</v>
+        <v>53304.74</v>
       </c>
       <c r="G237">
         <v>20.0761</v>
@@ -6638,10 +6710,10 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>104.205534403445</v>
+        <v>93.407891685787007</v>
       </c>
       <c r="C238">
-        <v>86.213162301219</v>
+        <v>78.431784994514999</v>
       </c>
       <c r="D238">
         <v>43.342082825585997</v>
@@ -6650,7 +6722,7 @@
         <v>46.554106339950998</v>
       </c>
       <c r="F238">
-        <v>51517.07</v>
+        <v>51385.55</v>
       </c>
       <c r="G238">
         <v>20.0487</v>
@@ -6661,10 +6733,10 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>108.249110898899</v>
+        <v>97.047412061206998</v>
       </c>
       <c r="C239">
-        <v>100.866217488478</v>
+        <v>87.959431478631004</v>
       </c>
       <c r="D239">
         <v>43.843081349925001</v>
@@ -6673,7 +6745,7 @@
         <v>46.433398149683001</v>
       </c>
       <c r="F239">
-        <v>51705.356190476188</v>
+        <v>51309.84</v>
       </c>
       <c r="G239">
         <v>20.462599999999998</v>
@@ -6684,10 +6756,10 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>112.534490267401</v>
+        <v>100.618524431319</v>
       </c>
       <c r="C240">
-        <v>165.69725485464099</v>
+        <v>136.93932872576499</v>
       </c>
       <c r="D240">
         <v>45.935432245422</v>
@@ -6696,7 +6768,7 @@
         <v>49.705606261631999</v>
       </c>
       <c r="F240">
-        <v>51125.743500000004</v>
+        <v>49698.720000000001</v>
       </c>
       <c r="G240">
         <v>20.900400000000001</v>
@@ -6707,10 +6779,10 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>112.653666724978</v>
+        <v>98.982573996094004</v>
       </c>
       <c r="C241">
-        <v>162.874786973932</v>
+        <v>135.98741920799301</v>
       </c>
       <c r="D241">
         <v>44.896417492952999</v>
@@ -6719,7 +6791,7 @@
         <v>49.117447024154004</v>
       </c>
       <c r="F241">
-        <v>51759.230869565217</v>
+        <v>53272.44</v>
       </c>
       <c r="G241">
         <v>20.8918</v>
@@ -6730,10 +6802,10 @@
         <v>249</v>
       </c>
       <c r="B242">
-        <v>107.229035040764</v>
+        <v>95.814116934270999</v>
       </c>
       <c r="C242">
-        <v>132.28306215549799</v>
+        <v>111.63584865681401</v>
       </c>
       <c r="D242">
         <v>43.590903532298</v>
@@ -6742,7 +6814,7 @@
         <v>48.820961800531002</v>
       </c>
       <c r="F242">
-        <v>52494.79714285714</v>
+        <v>51330.85</v>
       </c>
       <c r="G242">
         <v>20.497800000000002</v>
@@ -6753,10 +6825,10 @@
         <v>250</v>
       </c>
       <c r="B243">
-        <v>105.540077061307</v>
+        <v>93.914632491301006</v>
       </c>
       <c r="C243">
-        <v>101.711782659996</v>
+        <v>88.161930135023994</v>
       </c>
       <c r="D243">
         <v>42.940053805837998</v>
@@ -6765,7 +6837,7 @@
         <v>47.618338338727</v>
       </c>
       <c r="F243">
-        <v>52353.798947368421</v>
+        <v>53400.61</v>
       </c>
       <c r="G243">
         <v>20.4495</v>
@@ -6776,10 +6848,10 @@
         <v>251</v>
       </c>
       <c r="B244">
-        <v>112.259414672555</v>
+        <v>99.967807647239994</v>
       </c>
       <c r="C244">
-        <v>98.315348498844997</v>
+        <v>88.046026185125996</v>
       </c>
       <c r="D244">
         <v>43.560277939671998</v>
@@ -6788,7 +6860,7 @@
         <v>48.565838502425002</v>
       </c>
       <c r="F244">
-        <v>54312.392272727266</v>
+        <v>56536.68</v>
       </c>
       <c r="G244">
         <v>20.5562</v>
@@ -6799,10 +6871,10 @@
         <v>252</v>
       </c>
       <c r="B245">
-        <v>109.61856941521</v>
+        <v>99.349741652252007</v>
       </c>
       <c r="C245">
-        <v>107.89217870511</v>
+        <v>97.163813384075993</v>
       </c>
       <c r="D245">
         <v>44.301709560652</v>
@@ -6811,7 +6883,7 @@
         <v>48.656022717787998</v>
       </c>
       <c r="F245">
-        <v>54057.038947368412</v>
+        <v>51417.97</v>
       </c>
       <c r="G245">
         <v>20.108799999999999</v>
@@ -6822,10 +6894,10 @@
         <v>253</v>
       </c>
       <c r="B246">
-        <v>114.21407477879001</v>
+        <v>101.95598526481599</v>
       </c>
       <c r="C246">
-        <v>136.18789483847999</v>
+        <v>121.328212991111</v>
       </c>
       <c r="D246">
         <v>43.782312077302997</v>
@@ -6834,7 +6906,7 @@
         <v>48.498823005215002</v>
       </c>
       <c r="F246">
-        <v>50861.209090909084</v>
+        <v>51752.53</v>
       </c>
       <c r="G246">
         <v>20.0305</v>
@@ -6845,10 +6917,10 @@
         <v>254</v>
       </c>
       <c r="B247">
-        <v>112.790073371649</v>
+        <v>99.908891189290003</v>
       </c>
       <c r="C247">
-        <v>126.874198567599</v>
+        <v>110.947699708503</v>
       </c>
       <c r="D247">
         <v>43.208627089887997</v>
@@ -6857,7 +6929,7 @@
         <v>48.193663327727002</v>
       </c>
       <c r="F247">
-        <v>48692.372272727269</v>
+        <v>47524.45</v>
       </c>
       <c r="G247">
         <v>20.023700000000002</v>
@@ -6868,10 +6940,10 @@
         <v>241</v>
       </c>
       <c r="B248">
-        <v>111.284214253336</v>
+        <v>100.508170619061</v>
       </c>
       <c r="C248">
-        <v>116.255810710361</v>
+        <v>102.190307584381</v>
       </c>
       <c r="D248">
         <v>41.269872650913001</v>
@@ -6880,7 +6952,7 @@
         <v>47.117538341913999</v>
       </c>
       <c r="F248">
-        <v>47392.099047619049</v>
+        <v>48144.33</v>
       </c>
       <c r="G248">
         <v>20.546700000000001</v>
@@ -6891,10 +6963,10 @@
         <v>242</v>
       </c>
       <c r="B249">
-        <v>112.917041167657</v>
+        <v>101.01171329554001</v>
       </c>
       <c r="C249">
-        <v>93.413122449645002</v>
+        <v>84.975120397590999</v>
       </c>
       <c r="D249">
         <v>40.297933839210003</v>
@@ -6903,7 +6975,7 @@
         <v>46.110803005036999</v>
       </c>
       <c r="F249">
-        <v>47547.934347826085</v>
+        <v>44919.22</v>
       </c>
       <c r="G249">
         <v>20.120899999999999</v>
@@ -6914,10 +6986,10 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>109.505769654082</v>
+        <v>98.379287082857005</v>
       </c>
       <c r="C250">
-        <v>91.087344538628997</v>
+        <v>83.656480165770006</v>
       </c>
       <c r="D250">
         <v>40.822792165000003</v>
@@ -6926,7 +6998,7 @@
         <v>46.146287762375003</v>
       </c>
       <c r="F250">
-        <v>46121.979523809525</v>
+        <v>44626.8</v>
       </c>
       <c r="G250">
         <v>20.074999999999999</v>
@@ -6937,10 +7009,10 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>113.101302204276</v>
+        <v>101.882677944161</v>
       </c>
       <c r="C251">
-        <v>105.100205601818</v>
+        <v>91.164301495331003</v>
       </c>
       <c r="D251">
         <v>41.283880015538998</v>
@@ -6949,7 +7021,7 @@
         <v>46.546572248768001</v>
       </c>
       <c r="F251">
-        <v>46825.505238095233</v>
+        <v>49922.3</v>
       </c>
       <c r="G251">
         <v>19.984500000000001</v>
@@ -6960,10 +7032,10 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>116.235465411032</v>
+        <v>105.19530989596799</v>
       </c>
       <c r="C252">
-        <v>174.80824153539399</v>
+        <v>145.43754722297601</v>
       </c>
       <c r="D252">
         <v>41.755955250832002</v>
@@ -6972,7 +7044,7 @@
         <v>47.194352112982997</v>
       </c>
       <c r="F252">
-        <v>51284.925499999998</v>
+        <v>51684.86</v>
       </c>
       <c r="G252">
         <v>19.444900000000001</v>
@@ -6983,10 +7055,10 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>115.65744692961501</v>
+        <v>103.85864446234</v>
       </c>
       <c r="C253">
-        <v>174.15090605306801</v>
+        <v>142.64132309848901</v>
       </c>
       <c r="D253">
         <v>43.287305150133001</v>
@@ -6995,7 +7067,7 @@
         <v>48.340994727808003</v>
       </c>
       <c r="F253">
-        <v>50269.864761904748</v>
+        <v>48463.86</v>
       </c>
       <c r="G253">
         <v>19.593</v>
@@ -7006,10 +7078,10 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>112.099534402271</v>
+        <v>99.709560373724003</v>
       </c>
       <c r="C254">
-        <v>131.63322847320501</v>
+        <v>108.608164862796</v>
       </c>
       <c r="D254">
         <v>44.774005908794003</v>
@@ -7018,7 +7090,7 @@
         <v>49.505313506842</v>
       </c>
       <c r="F254">
-        <v>53007.338181818181</v>
+        <v>54564.27</v>
       </c>
       <c r="G254">
         <v>18.9863</v>
@@ -7029,10 +7101,10 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>109.550381639275</v>
+        <v>97.491386810804997</v>
       </c>
       <c r="C255">
-        <v>110.300233693525</v>
+        <v>96.180035583050994</v>
       </c>
       <c r="D255">
         <v>44.648579360698001</v>
@@ -7041,7 +7113,7 @@
         <v>48.915633636327001</v>
       </c>
       <c r="F255">
-        <v>53342.19000000001</v>
+        <v>52758.06</v>
       </c>
       <c r="G255">
         <v>18.598600000000001</v>
@@ -7052,10 +7124,10 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>115.25168580496199</v>
+        <v>102.62144393337201</v>
       </c>
       <c r="C256">
-        <v>99.198459687297998</v>
+        <v>86.716938029353997</v>
       </c>
       <c r="D256">
         <v>44.497504601820999</v>
@@ -7064,7 +7136,7 @@
         <v>48.885747890302</v>
       </c>
       <c r="F256">
-        <v>53120.794090909098</v>
+        <v>53904</v>
       </c>
       <c r="G256">
         <v>18.3749</v>
@@ -7075,10 +7147,10 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>112.52454605654199</v>
+        <v>102.460969476016</v>
       </c>
       <c r="C257">
-        <v>110.169383055815</v>
+        <v>99.051072436629994</v>
       </c>
       <c r="D257">
         <v>44.604057252018997</v>
@@ -7087,7 +7159,7 @@
         <v>48.967654366685998</v>
       </c>
       <c r="F257">
-        <v>54352.19000000001</v>
+        <v>55121.22</v>
       </c>
       <c r="G257">
         <v>18.0855</v>
@@ -7098,10 +7170,10 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>119.135537781992</v>
+        <v>105.369408531378</v>
       </c>
       <c r="C258">
-        <v>137.945520319699</v>
+        <v>118.655938302796</v>
       </c>
       <c r="D258">
         <v>44.672420334263002</v>
@@ -7110,10 +7182,562 @@
         <v>49.051707577393003</v>
       </c>
       <c r="F258">
-        <v>54492.129090909097</v>
+        <v>52736.26</v>
       </c>
       <c r="G258">
         <v>17.737300000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259">
+        <v>103.83634325123199</v>
+      </c>
+      <c r="C259">
+        <v>113.096416328779</v>
+      </c>
+      <c r="D259">
+        <v>45.900081964233003</v>
+      </c>
+      <c r="E259">
+        <v>49.963484642497001</v>
+      </c>
+      <c r="F259">
+        <v>53526.1</v>
+      </c>
+      <c r="G259">
+        <v>17.241199999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260">
+        <v>104.188589598927</v>
+      </c>
+      <c r="C260">
+        <v>102.58863626795799</v>
+      </c>
+      <c r="D260">
+        <v>46.382665573225999</v>
+      </c>
+      <c r="E260">
+        <v>50.567338643766</v>
+      </c>
+      <c r="F260">
+        <v>54819.05</v>
+      </c>
+      <c r="G260">
+        <v>16.904900000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>266</v>
+      </c>
+      <c r="B261">
+        <v>104.598699099454</v>
+      </c>
+      <c r="C261">
+        <v>86.985835689602993</v>
+      </c>
+      <c r="D261">
+        <v>46.082397318317</v>
+      </c>
+      <c r="E261">
+        <v>50.640212868965001</v>
+      </c>
+      <c r="F261">
+        <v>53020.98</v>
+      </c>
+      <c r="G261">
+        <v>16.976600000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262">
+        <v>102.991980596546</v>
+      </c>
+      <c r="C262">
+        <v>82.963037234606006</v>
+      </c>
+      <c r="D262">
+        <v>46.378813796553999</v>
+      </c>
+      <c r="E262">
+        <v>50.809301260049999</v>
+      </c>
+      <c r="F262">
+        <v>50874.98</v>
+      </c>
+      <c r="G262">
+        <v>17.307700000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263">
+        <v>106.067574904699</v>
+      </c>
+      <c r="C263">
+        <v>93.218263426215003</v>
+      </c>
+      <c r="D263">
+        <v>45.669149771775999</v>
+      </c>
+      <c r="E263">
+        <v>50.877081797037</v>
+      </c>
+      <c r="F263">
+        <v>49061.88</v>
+      </c>
+      <c r="G263">
+        <v>18.0823</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264">
+        <v>107.751350961339</v>
+      </c>
+      <c r="C264">
+        <v>125.476339485244</v>
+      </c>
+      <c r="D264">
+        <v>46.899020937591999</v>
+      </c>
+      <c r="E264">
+        <v>51.812179943902002</v>
+      </c>
+      <c r="F264">
+        <v>54060.01</v>
+      </c>
+      <c r="G264">
+        <v>17.3767</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265">
+        <v>105.773402762282</v>
+      </c>
+      <c r="C265">
+        <v>137.98538809570101</v>
+      </c>
+      <c r="D265">
+        <v>47.185889143993997</v>
+      </c>
+      <c r="E265">
+        <v>52.268982815751997</v>
+      </c>
+      <c r="F265">
+        <v>57386.25</v>
+      </c>
+      <c r="G265">
+        <v>17.186</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266">
+        <v>100.615378579539</v>
+      </c>
+      <c r="C266">
+        <v>93.112961115499999</v>
+      </c>
+      <c r="D266">
+        <v>47.571614440638001</v>
+      </c>
+      <c r="E266">
+        <v>52.141965424195</v>
+      </c>
+      <c r="F266">
+        <v>57372.76</v>
+      </c>
+      <c r="G266">
+        <v>17.087299999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267">
+        <v>100.087079117264</v>
+      </c>
+      <c r="C267">
+        <v>97.205858357883002</v>
+      </c>
+      <c r="D267">
+        <v>47.125446530714001</v>
+      </c>
+      <c r="E267">
+        <v>52.201371348828999</v>
+      </c>
+      <c r="F267">
+        <v>55414</v>
+      </c>
+      <c r="G267">
+        <v>17.0898</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>273</v>
+      </c>
+      <c r="B268">
+        <v>105.981413261917</v>
+      </c>
+      <c r="C268">
+        <v>86.488927669240994</v>
+      </c>
+      <c r="D268">
+        <v>47.37701218166</v>
+      </c>
+      <c r="E268">
+        <v>52.845697468779001</v>
+      </c>
+      <c r="F268">
+        <v>57369.01</v>
+      </c>
+      <c r="G268">
+        <v>16.791799999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269">
+        <v>103.252023853586</v>
+      </c>
+      <c r="C269">
+        <v>94.584079325798001</v>
+      </c>
+      <c r="D269">
+        <v>47.734665663569999</v>
+      </c>
+      <c r="E269">
+        <v>52.919467305661001</v>
+      </c>
+      <c r="F269">
+        <v>56727.98</v>
+      </c>
+      <c r="G269">
+        <v>16.810400000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>275</v>
+      </c>
+      <c r="B270">
+        <v>107.151082234957</v>
+      </c>
+      <c r="C270">
+        <v>113.820274798376</v>
+      </c>
+      <c r="D270">
+        <v>46.695694705173999</v>
+      </c>
+      <c r="E270">
+        <v>52.609343546896</v>
+      </c>
+      <c r="F270">
+        <v>55179.24</v>
+      </c>
+      <c r="G270">
+        <v>16.793600000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>276</v>
+      </c>
+      <c r="B271">
+        <v>105.124313429908</v>
+      </c>
+      <c r="C271">
+        <v>106.762964423887</v>
+      </c>
+      <c r="D271">
+        <v>48.053007238749998</v>
+      </c>
+      <c r="E271">
+        <v>52.694421915059998</v>
+      </c>
+      <c r="F271">
+        <v>52440.02</v>
+      </c>
+      <c r="G271">
+        <v>18.217400000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272">
+        <v>106.34087557962199</v>
+      </c>
+      <c r="C272">
+        <v>113.83395003286699</v>
+      </c>
+      <c r="D272">
+        <v>46.966746692724001</v>
+      </c>
+      <c r="E272">
+        <v>52.082464717969003</v>
+      </c>
+      <c r="F272">
+        <v>53093.97</v>
+      </c>
+      <c r="G272">
+        <v>18.111699999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273">
+        <v>105.953954063867</v>
+      </c>
+      <c r="C273">
+        <v>83.686744864334997</v>
+      </c>
+      <c r="D273">
+        <v>46.993258614231998</v>
+      </c>
+      <c r="E273">
+        <v>51.510702911511999</v>
+      </c>
+      <c r="F273">
+        <v>51985.87</v>
+      </c>
+      <c r="G273">
+        <v>19.151499999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274">
+        <v>103.974825485175</v>
+      </c>
+      <c r="C274">
+        <v>81.920398626354995</v>
+      </c>
+      <c r="D274">
+        <v>46.565337126157999</v>
+      </c>
+      <c r="E274">
+        <v>51.441561516001997</v>
+      </c>
+      <c r="F274">
+        <v>52477.3</v>
+      </c>
+      <c r="G274">
+        <v>19.631599999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275">
+        <v>105.660735747077</v>
+      </c>
+      <c r="C275">
+        <v>86.945461369037005</v>
+      </c>
+      <c r="D275">
+        <v>48.897877633122</v>
+      </c>
+      <c r="E275">
+        <v>51.982855855876998</v>
+      </c>
+      <c r="F275">
+        <v>50661.05</v>
+      </c>
+      <c r="G275">
+        <v>19.706199999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>281</v>
+      </c>
+      <c r="B276">
+        <v>108.533356180228</v>
+      </c>
+      <c r="C276">
+        <v>122.37686014653001</v>
+      </c>
+      <c r="D276">
+        <v>47.442950378912002</v>
+      </c>
+      <c r="E276">
+        <v>51.705833883170001</v>
+      </c>
+      <c r="F276">
+        <v>49812.639999999999</v>
+      </c>
+      <c r="G276">
+        <v>20.345500000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>282</v>
+      </c>
+      <c r="B277">
+        <v>104.68701186309799</v>
+      </c>
+      <c r="C277">
+        <v>126.842545329866</v>
+      </c>
+      <c r="D277">
+        <v>47.270034347409002</v>
+      </c>
+      <c r="E277">
+        <v>51.594970537645999</v>
+      </c>
+      <c r="F277">
+        <v>49513.27</v>
+      </c>
+      <c r="G277">
+        <v>20.266100000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>283</v>
+      </c>
+      <c r="B278">
+        <v>100.580717205765</v>
+      </c>
+      <c r="C278">
+        <v>106.871526629904</v>
+      </c>
+      <c r="D278">
+        <v>47.149656125926001</v>
+      </c>
+      <c r="E278">
+        <v>52.093663787578997</v>
+      </c>
+      <c r="F278">
+        <v>51209.53</v>
+      </c>
+      <c r="G278">
+        <v>20.548999999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279">
+        <v>100.899587210063</v>
+      </c>
+      <c r="C279">
+        <v>96.091712524789997</v>
+      </c>
+      <c r="D279">
+        <v>46.488366486733</v>
+      </c>
+      <c r="E279">
+        <v>51.554709731732999</v>
+      </c>
+      <c r="F279">
+        <v>52325.73</v>
+      </c>
+      <c r="G279">
+        <v>20.457100000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>285</v>
+      </c>
+      <c r="B280">
+        <v>105.80887852017101</v>
+      </c>
+      <c r="C280">
+        <v>94.762388364112994</v>
+      </c>
+      <c r="D280">
+        <v>46.090078149416001</v>
+      </c>
+      <c r="E280">
+        <v>51.713886002711</v>
+      </c>
+      <c r="F280">
+        <v>52484.43</v>
+      </c>
+      <c r="G280">
+        <v>20.241700000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>286</v>
+      </c>
+      <c r="B281">
+        <v>104.33151888376101</v>
+      </c>
+      <c r="C281">
+        <v>93.172301484505994</v>
+      </c>
+      <c r="D281">
+        <v>45.454235606749997</v>
+      </c>
+      <c r="E281">
+        <v>51.322182008265003</v>
+      </c>
+      <c r="F281">
+        <v>56259.28</v>
+      </c>
+      <c r="G281">
+        <v>20.0564</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>287</v>
+      </c>
+      <c r="B282">
+        <v>107.532926647286</v>
+      </c>
+      <c r="C282">
+        <v>120.02319362474999</v>
+      </c>
+      <c r="D282">
+        <v>46.497801253238002</v>
+      </c>
+      <c r="E282">
+        <v>52.174658656033003</v>
+      </c>
+      <c r="F282">
+        <v>57841.69</v>
+      </c>
+      <c r="G282">
+        <v>19.435500000000001</v>
       </c>
     </row>
   </sheetData>
